--- a/nirsevimab_analizado.xlsx
+++ b/nirsevimab_analizado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5484" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="376">
   <si>
     <t>Id</t>
   </si>
@@ -1503,7 +1503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1321"/>
+  <dimension ref="A1:AA1326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -111149,6 +111149,421 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1322" spans="1:27">
+      <c r="A1322" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B1322">
+        <v>1357</v>
+      </c>
+      <c r="C1322" s="2">
+        <v>45411.32134259259</v>
+      </c>
+      <c r="D1322" s="2">
+        <v>45411.43271990741</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1322" s="2">
+        <v>45408</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1322">
+        <v>31</v>
+      </c>
+      <c r="I1322">
+        <v>0</v>
+      </c>
+      <c r="J1322">
+        <v>0</v>
+      </c>
+      <c r="K1322">
+        <v>0</v>
+      </c>
+      <c r="L1322">
+        <v>0</v>
+      </c>
+      <c r="M1322">
+        <v>0</v>
+      </c>
+      <c r="N1322">
+        <v>0</v>
+      </c>
+      <c r="O1322">
+        <v>31</v>
+      </c>
+      <c r="P1322">
+        <v>0</v>
+      </c>
+      <c r="Q1322">
+        <v>1</v>
+      </c>
+      <c r="R1322">
+        <v>0</v>
+      </c>
+      <c r="S1322">
+        <v>0</v>
+      </c>
+      <c r="T1322">
+        <v>0</v>
+      </c>
+      <c r="U1322">
+        <v>0</v>
+      </c>
+      <c r="V1322">
+        <v>0</v>
+      </c>
+      <c r="W1322">
+        <v>0</v>
+      </c>
+      <c r="X1322">
+        <v>1</v>
+      </c>
+      <c r="Y1322">
+        <v>0</v>
+      </c>
+      <c r="Z1322" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:27">
+      <c r="A1323" s="1">
+        <v>1321</v>
+      </c>
+      <c r="B1323">
+        <v>1358</v>
+      </c>
+      <c r="C1323" s="2">
+        <v>45411.43300925926</v>
+      </c>
+      <c r="D1323" s="2">
+        <v>45411.43375</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1323" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1323">
+        <v>31</v>
+      </c>
+      <c r="I1323">
+        <v>1</v>
+      </c>
+      <c r="J1323">
+        <v>0</v>
+      </c>
+      <c r="K1323">
+        <v>0</v>
+      </c>
+      <c r="L1323">
+        <v>0</v>
+      </c>
+      <c r="M1323">
+        <v>0</v>
+      </c>
+      <c r="N1323">
+        <v>0</v>
+      </c>
+      <c r="O1323">
+        <v>30</v>
+      </c>
+      <c r="P1323">
+        <v>0</v>
+      </c>
+      <c r="Q1323">
+        <v>1</v>
+      </c>
+      <c r="R1323">
+        <v>0</v>
+      </c>
+      <c r="S1323">
+        <v>0</v>
+      </c>
+      <c r="T1323">
+        <v>0</v>
+      </c>
+      <c r="U1323">
+        <v>0</v>
+      </c>
+      <c r="V1323">
+        <v>0</v>
+      </c>
+      <c r="W1323">
+        <v>0</v>
+      </c>
+      <c r="X1323">
+        <v>1</v>
+      </c>
+      <c r="Y1323">
+        <v>0</v>
+      </c>
+      <c r="Z1323" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:27">
+      <c r="A1324" s="1">
+        <v>1322</v>
+      </c>
+      <c r="B1324">
+        <v>1359</v>
+      </c>
+      <c r="C1324" s="2">
+        <v>45411.43385416667</v>
+      </c>
+      <c r="D1324" s="2">
+        <v>45411.43460648148</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1324" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1324">
+        <v>30</v>
+      </c>
+      <c r="I1324">
+        <v>1</v>
+      </c>
+      <c r="J1324">
+        <v>0</v>
+      </c>
+      <c r="K1324">
+        <v>0</v>
+      </c>
+      <c r="L1324">
+        <v>0</v>
+      </c>
+      <c r="M1324">
+        <v>0</v>
+      </c>
+      <c r="N1324">
+        <v>0</v>
+      </c>
+      <c r="O1324">
+        <v>29</v>
+      </c>
+      <c r="P1324">
+        <v>0</v>
+      </c>
+      <c r="Q1324">
+        <v>1</v>
+      </c>
+      <c r="R1324">
+        <v>0</v>
+      </c>
+      <c r="S1324">
+        <v>0</v>
+      </c>
+      <c r="T1324">
+        <v>0</v>
+      </c>
+      <c r="U1324">
+        <v>0</v>
+      </c>
+      <c r="V1324">
+        <v>0</v>
+      </c>
+      <c r="W1324">
+        <v>0</v>
+      </c>
+      <c r="X1324">
+        <v>1</v>
+      </c>
+      <c r="Y1324">
+        <v>0</v>
+      </c>
+      <c r="Z1324" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:27">
+      <c r="A1325" s="1">
+        <v>1323</v>
+      </c>
+      <c r="B1325">
+        <v>1360</v>
+      </c>
+      <c r="C1325" s="2">
+        <v>45411.43350694444</v>
+      </c>
+      <c r="D1325" s="2">
+        <v>45411.43486111111</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1325" s="2">
+        <v>45408</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1325">
+        <v>12</v>
+      </c>
+      <c r="I1325">
+        <v>6</v>
+      </c>
+      <c r="J1325">
+        <v>0</v>
+      </c>
+      <c r="K1325">
+        <v>0</v>
+      </c>
+      <c r="L1325">
+        <v>8</v>
+      </c>
+      <c r="M1325" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1325" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1325">
+        <v>14</v>
+      </c>
+      <c r="P1325">
+        <v>0</v>
+      </c>
+      <c r="Q1325">
+        <v>0</v>
+      </c>
+      <c r="R1325">
+        <v>0</v>
+      </c>
+      <c r="S1325">
+        <v>0</v>
+      </c>
+      <c r="T1325">
+        <v>0</v>
+      </c>
+      <c r="U1325">
+        <v>0</v>
+      </c>
+      <c r="V1325" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1325" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1325">
+        <v>0</v>
+      </c>
+      <c r="Y1325">
+        <v>0</v>
+      </c>
+      <c r="Z1325" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:27">
+      <c r="A1326" s="1">
+        <v>1324</v>
+      </c>
+      <c r="B1326">
+        <v>1361</v>
+      </c>
+      <c r="C1326" s="2">
+        <v>45411.43274305556</v>
+      </c>
+      <c r="D1326" s="2">
+        <v>45411.43690972222</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1326" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1326">
+        <v>24</v>
+      </c>
+      <c r="I1326">
+        <v>10</v>
+      </c>
+      <c r="J1326">
+        <v>0</v>
+      </c>
+      <c r="K1326">
+        <v>0</v>
+      </c>
+      <c r="L1326">
+        <v>0</v>
+      </c>
+      <c r="M1326">
+        <v>0</v>
+      </c>
+      <c r="N1326">
+        <v>0</v>
+      </c>
+      <c r="O1326">
+        <v>14</v>
+      </c>
+      <c r="P1326" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q1326">
+        <v>0</v>
+      </c>
+      <c r="R1326">
+        <v>0</v>
+      </c>
+      <c r="S1326">
+        <v>0</v>
+      </c>
+      <c r="T1326">
+        <v>0</v>
+      </c>
+      <c r="U1326">
+        <v>0</v>
+      </c>
+      <c r="V1326">
+        <v>0</v>
+      </c>
+      <c r="W1326">
+        <v>0</v>
+      </c>
+      <c r="X1326">
+        <v>0</v>
+      </c>
+      <c r="Y1326">
+        <v>0</v>
+      </c>
+      <c r="Z1326" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1326" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nirsevimab_analizado.xlsx
+++ b/nirsevimab_analizado.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="381">
   <si>
     <t>Id</t>
   </si>
@@ -931,6 +931,9 @@
     <t>El stock total del día es 8. Administré 5 nirsevimab.</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoy no se administraron nirsevimab </t>
+  </si>
+  <si>
     <t>nada</t>
   </si>
   <si>
@@ -959,6 +962,12 @@
   </si>
   <si>
     <t>N/AA</t>
+  </si>
+  <si>
+    <t>INGUNA</t>
+  </si>
+  <si>
+    <t>N/a</t>
   </si>
   <si>
     <t>Vacunatroio san joaquin UC y Neonatologia HCUC</t>
@@ -1142,6 +1151,12 @@
   </si>
   <si>
     <t>dos pacientes LRS</t>
+  </si>
+  <si>
+    <t>No se maneja nirsevimab de 100mg en la vitrina de la upc neo</t>
+  </si>
+  <si>
+    <t>no paciente LRS</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1326"/>
+  <dimension ref="A1:AA1393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5315,7 +5330,7 @@
         <v>48</v>
       </c>
       <c r="Y46" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Z46" t="b">
         <v>0</v>
@@ -6145,7 +6160,7 @@
         <v>440</v>
       </c>
       <c r="Y56" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Z56" t="b">
         <v>0</v>
@@ -7639,7 +7654,7 @@
         <v>6</v>
       </c>
       <c r="Y74" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Z74" t="b">
         <v>1</v>
@@ -7713,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="V75" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="W75" t="s">
         <v>124</v>
@@ -7722,7 +7737,7 @@
         <v>614</v>
       </c>
       <c r="Y75" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Z75" t="b">
         <v>0</v>
@@ -7888,7 +7903,7 @@
         <v>14</v>
       </c>
       <c r="Y77" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Z77" t="b">
         <v>0</v>
@@ -9797,7 +9812,7 @@
         <v>0</v>
       </c>
       <c r="Y100" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Z100" t="b">
         <v>1</v>
@@ -9963,7 +9978,7 @@
         <v>104</v>
       </c>
       <c r="Y102" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Z102" t="b">
         <v>1</v>
@@ -10046,7 +10061,7 @@
         <v>96</v>
       </c>
       <c r="Y103" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Z103" t="b">
         <v>1</v>
@@ -10461,7 +10476,7 @@
         <v>98</v>
       </c>
       <c r="Y108" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Z108" t="b">
         <v>1</v>
@@ -10544,7 +10559,7 @@
         <v>96</v>
       </c>
       <c r="Y109" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Z109" t="b">
         <v>0</v>
@@ -10618,7 +10633,7 @@
         <v>10</v>
       </c>
       <c r="V110" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="W110">
         <v>0</v>
@@ -10710,7 +10725,7 @@
         <v>100</v>
       </c>
       <c r="Y111" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Z111" t="b">
         <v>1</v>
@@ -10870,7 +10885,7 @@
         <v>89</v>
       </c>
       <c r="W113" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="X113">
         <v>147</v>
@@ -16520,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="Y181" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Z181" t="b">
         <v>1</v>
@@ -18263,7 +18278,7 @@
         <v>0</v>
       </c>
       <c r="Y202" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Z202" t="b">
         <v>0</v>
@@ -18678,7 +18693,7 @@
         <v>35</v>
       </c>
       <c r="Y207" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Z207" t="b">
         <v>1</v>
@@ -19004,7 +19019,7 @@
         <v>93</v>
       </c>
       <c r="W211" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="X211">
         <v>0</v>
@@ -19508,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="Y217" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Z217" t="b">
         <v>1</v>
@@ -21998,7 +22013,7 @@
         <v>108</v>
       </c>
       <c r="Y247" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Z247" t="b">
         <v>1</v>
@@ -22413,7 +22428,7 @@
         <v>7</v>
       </c>
       <c r="Y252" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Z252" t="b">
         <v>1</v>
@@ -22994,7 +23009,7 @@
         <v>36</v>
       </c>
       <c r="Y259" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Z259" t="b">
         <v>1</v>
@@ -23409,7 +23424,7 @@
         <v>549</v>
       </c>
       <c r="Y264" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Z264" t="b">
         <v>1</v>
@@ -23824,7 +23839,7 @@
         <v>20</v>
       </c>
       <c r="Y269" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Z269" t="b">
         <v>1</v>
@@ -24814,7 +24829,7 @@
         <v>0</v>
       </c>
       <c r="W281" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="X281">
         <v>256</v>
@@ -24903,7 +24918,7 @@
         <v>26</v>
       </c>
       <c r="Y282" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Z282" t="b">
         <v>1</v>
@@ -26480,7 +26495,7 @@
         <v>0</v>
       </c>
       <c r="Y301" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Z301" t="b">
         <v>0</v>
@@ -26563,7 +26578,7 @@
         <v>0</v>
       </c>
       <c r="Y302" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Z302" t="b">
         <v>1</v>
@@ -26729,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="Y304" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Z304" t="b">
         <v>1</v>
@@ -26812,7 +26827,7 @@
         <v>0</v>
       </c>
       <c r="Y305" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Z305" t="b">
         <v>1</v>
@@ -26895,7 +26910,7 @@
         <v>61</v>
       </c>
       <c r="Y306" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Z306" t="b">
         <v>1</v>
@@ -27144,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="Y309" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z309" t="b">
         <v>1</v>
@@ -27227,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="Y310" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z310" t="b">
         <v>1</v>
@@ -27393,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="Y312" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z312" t="b">
         <v>1</v>
@@ -27476,7 +27491,7 @@
         <v>0</v>
       </c>
       <c r="Y313" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z313" t="b">
         <v>1</v>
@@ -27642,7 +27657,7 @@
         <v>0</v>
       </c>
       <c r="Y315" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Z315" t="b">
         <v>1</v>
@@ -29468,7 +29483,7 @@
         <v>0</v>
       </c>
       <c r="Y337" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Z337" t="b">
         <v>1</v>
@@ -30381,7 +30396,7 @@
         <v>107</v>
       </c>
       <c r="Y348" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Z348" t="b">
         <v>1</v>
@@ -34282,7 +34297,7 @@
         <v>0</v>
       </c>
       <c r="Y395" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Z395" t="b">
         <v>1</v>
@@ -35278,7 +35293,7 @@
         <v>34</v>
       </c>
       <c r="Y407" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Z407" t="b">
         <v>1</v>
@@ -36689,7 +36704,7 @@
         <v>99</v>
       </c>
       <c r="Y424" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Z424" t="b">
         <v>0</v>
@@ -37436,7 +37451,7 @@
         <v>261</v>
       </c>
       <c r="Y433" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Z433" t="b">
         <v>0</v>
@@ -39668,7 +39683,7 @@
         <v>2</v>
       </c>
       <c r="V460" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="W460">
         <v>0</v>
@@ -41909,10 +41924,10 @@
         <v>1</v>
       </c>
       <c r="V487" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="W487" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="X487">
         <v>53</v>
@@ -42167,7 +42182,7 @@
         <v>0</v>
       </c>
       <c r="Y490" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z490" t="b">
         <v>1</v>
@@ -45404,7 +45419,7 @@
         <v>89</v>
       </c>
       <c r="Y529" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Z529" t="b">
         <v>1</v>
@@ -46898,7 +46913,7 @@
         <v>117</v>
       </c>
       <c r="Y547" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Z547" t="b">
         <v>1</v>
@@ -50799,7 +50814,7 @@
         <v>27</v>
       </c>
       <c r="Y594" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z594" t="b">
         <v>1</v>
@@ -55198,7 +55213,7 @@
         <v>0</v>
       </c>
       <c r="Y647" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Z647" t="b">
         <v>1</v>
@@ -59505,7 +59520,7 @@
         <v>0</v>
       </c>
       <c r="V699" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="W699">
         <v>0</v>
@@ -59846,7 +59861,7 @@
         <v>0</v>
       </c>
       <c r="Y703" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Z703" t="b">
         <v>0</v>
@@ -61257,7 +61272,7 @@
         <v>6</v>
       </c>
       <c r="Y720" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Z720" t="b">
         <v>1</v>
@@ -61340,7 +61355,7 @@
         <v>0</v>
       </c>
       <c r="Y721" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Z721" t="b">
         <v>1</v>
@@ -61589,7 +61604,7 @@
         <v>24</v>
       </c>
       <c r="Y724" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Z724" t="b">
         <v>1</v>
@@ -63664,7 +63679,7 @@
         <v>0</v>
       </c>
       <c r="Y749" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Z749" t="b">
         <v>1</v>
@@ -67814,7 +67829,7 @@
         <v>0</v>
       </c>
       <c r="Y799" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Z799" t="b">
         <v>0</v>
@@ -67897,7 +67912,7 @@
         <v>0</v>
       </c>
       <c r="Y800" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Z800" t="b">
         <v>0</v>
@@ -68893,7 +68908,7 @@
         <v>13</v>
       </c>
       <c r="Y812" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Z812" t="b">
         <v>1</v>
@@ -70544,7 +70559,7 @@
         <v>30</v>
       </c>
       <c r="V832" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="W832" t="s">
         <v>80</v>
@@ -72047,7 +72062,7 @@
         <v>411</v>
       </c>
       <c r="Y850" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Z850" t="b">
         <v>1</v>
@@ -74703,7 +74718,7 @@
         <v>0</v>
       </c>
       <c r="Y882" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Z882" t="b">
         <v>1</v>
@@ -75773,7 +75788,7 @@
         <v>150</v>
       </c>
       <c r="V895" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W895">
         <v>0</v>
@@ -76446,7 +76461,7 @@
         <v>30</v>
       </c>
       <c r="Y903" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Z903" t="b">
         <v>1</v>
@@ -78604,7 +78619,7 @@
         <v>11</v>
       </c>
       <c r="Y929" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Z929" t="b">
         <v>1</v>
@@ -78936,7 +78951,7 @@
         <v>384</v>
       </c>
       <c r="Y933" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Z933" t="b">
         <v>0</v>
@@ -79591,7 +79606,7 @@
         <v>80</v>
       </c>
       <c r="V941" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="W941">
         <v>0</v>
@@ -80258,7 +80273,7 @@
         <v>80</v>
       </c>
       <c r="W949" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="X949">
         <v>299</v>
@@ -87070,7 +87085,7 @@
         <v>0</v>
       </c>
       <c r="Y1031" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Z1031" t="b">
         <v>0</v>
@@ -87313,7 +87328,7 @@
         <v>164</v>
       </c>
       <c r="W1034" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="X1034">
         <v>78</v>
@@ -94872,7 +94887,7 @@
         <v>59</v>
       </c>
       <c r="Y1125" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Z1125" t="b">
         <v>1</v>
@@ -97860,7 +97875,7 @@
         <v>0</v>
       </c>
       <c r="Y1161" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Z1161" t="b">
         <v>1</v>
@@ -97943,7 +97958,7 @@
         <v>0</v>
       </c>
       <c r="Y1162" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Z1162" t="b">
         <v>1</v>
@@ -99520,7 +99535,7 @@
         <v>0</v>
       </c>
       <c r="Y1181" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Z1181" t="b">
         <v>1</v>
@@ -101918,7 +101933,7 @@
         <v>50</v>
       </c>
       <c r="V1210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="W1210" t="s">
         <v>80</v>
@@ -101927,7 +101942,7 @@
         <v>80</v>
       </c>
       <c r="Y1210" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Z1210" t="b">
         <v>1</v>
@@ -103172,7 +103187,7 @@
         <v>0</v>
       </c>
       <c r="Y1225" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Z1225" t="b">
         <v>1</v>
@@ -103753,7 +103768,7 @@
         <v>0</v>
       </c>
       <c r="Y1232" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Z1232" t="b">
         <v>1</v>
@@ -108484,7 +108499,7 @@
         <v>226</v>
       </c>
       <c r="Y1289" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Z1289" t="b">
         <v>1</v>
@@ -109471,7 +109486,7 @@
         <v>0</v>
       </c>
       <c r="V1301" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="W1301">
         <v>0</v>
@@ -111561,6 +111576,5567 @@
         <v>1</v>
       </c>
       <c r="AA1326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:27">
+      <c r="A1327" s="1">
+        <v>1325</v>
+      </c>
+      <c r="B1327">
+        <v>1362</v>
+      </c>
+      <c r="C1327" s="2">
+        <v>45411.43490740741</v>
+      </c>
+      <c r="D1327" s="2">
+        <v>45411.43880787037</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1327" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1327">
+        <v>14</v>
+      </c>
+      <c r="I1327">
+        <v>0</v>
+      </c>
+      <c r="J1327">
+        <v>0</v>
+      </c>
+      <c r="K1327">
+        <v>0</v>
+      </c>
+      <c r="L1327">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1327" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1327">
+        <v>14</v>
+      </c>
+      <c r="P1327">
+        <v>0</v>
+      </c>
+      <c r="Q1327">
+        <v>0</v>
+      </c>
+      <c r="R1327">
+        <v>0</v>
+      </c>
+      <c r="S1327">
+        <v>0</v>
+      </c>
+      <c r="T1327">
+        <v>0</v>
+      </c>
+      <c r="U1327">
+        <v>0</v>
+      </c>
+      <c r="V1327" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1327" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1327">
+        <v>0</v>
+      </c>
+      <c r="Y1327">
+        <v>0</v>
+      </c>
+      <c r="Z1327" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:27">
+      <c r="A1328" s="1">
+        <v>1326</v>
+      </c>
+      <c r="B1328">
+        <v>1363</v>
+      </c>
+      <c r="C1328" s="2">
+        <v>45411.43891203704</v>
+      </c>
+      <c r="D1328" s="2">
+        <v>45411.43951388889</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1328" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1328">
+        <v>14</v>
+      </c>
+      <c r="I1328">
+        <v>1</v>
+      </c>
+      <c r="J1328">
+        <v>0</v>
+      </c>
+      <c r="K1328">
+        <v>0</v>
+      </c>
+      <c r="L1328">
+        <v>0</v>
+      </c>
+      <c r="M1328">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1328">
+        <v>13</v>
+      </c>
+      <c r="P1328">
+        <v>0</v>
+      </c>
+      <c r="Q1328">
+        <v>0</v>
+      </c>
+      <c r="R1328">
+        <v>0</v>
+      </c>
+      <c r="S1328">
+        <v>0</v>
+      </c>
+      <c r="T1328">
+        <v>0</v>
+      </c>
+      <c r="U1328">
+        <v>0</v>
+      </c>
+      <c r="V1328" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1328" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1328">
+        <v>0</v>
+      </c>
+      <c r="Y1328">
+        <v>0</v>
+      </c>
+      <c r="Z1328" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:27">
+      <c r="A1329" s="1">
+        <v>1327</v>
+      </c>
+      <c r="B1329">
+        <v>1364</v>
+      </c>
+      <c r="C1329" s="2">
+        <v>45411.48819444444</v>
+      </c>
+      <c r="D1329" s="2">
+        <v>45411.48994212963</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1329" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1329">
+        <v>4</v>
+      </c>
+      <c r="I1329">
+        <v>1</v>
+      </c>
+      <c r="J1329">
+        <v>0</v>
+      </c>
+      <c r="K1329">
+        <v>0</v>
+      </c>
+      <c r="L1329">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1329" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1329">
+        <v>3</v>
+      </c>
+      <c r="P1329">
+        <v>0</v>
+      </c>
+      <c r="Q1329">
+        <v>0</v>
+      </c>
+      <c r="R1329">
+        <v>0</v>
+      </c>
+      <c r="S1329">
+        <v>0</v>
+      </c>
+      <c r="T1329">
+        <v>0</v>
+      </c>
+      <c r="U1329">
+        <v>0</v>
+      </c>
+      <c r="V1329" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1329" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1329">
+        <v>0</v>
+      </c>
+      <c r="Y1329">
+        <v>0</v>
+      </c>
+      <c r="Z1329" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:27">
+      <c r="A1330" s="1">
+        <v>1328</v>
+      </c>
+      <c r="B1330">
+        <v>1365</v>
+      </c>
+      <c r="C1330" s="2">
+        <v>45411.48996527777</v>
+      </c>
+      <c r="D1330" s="2">
+        <v>45411.49148148148</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1330" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1330">
+        <v>3</v>
+      </c>
+      <c r="I1330">
+        <v>0</v>
+      </c>
+      <c r="J1330">
+        <v>0</v>
+      </c>
+      <c r="K1330">
+        <v>0</v>
+      </c>
+      <c r="L1330">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1330" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1330">
+        <v>3</v>
+      </c>
+      <c r="P1330">
+        <v>0</v>
+      </c>
+      <c r="Q1330">
+        <v>0</v>
+      </c>
+      <c r="R1330">
+        <v>0</v>
+      </c>
+      <c r="S1330">
+        <v>0</v>
+      </c>
+      <c r="T1330">
+        <v>0</v>
+      </c>
+      <c r="U1330">
+        <v>0</v>
+      </c>
+      <c r="V1330" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1330" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1330">
+        <v>0</v>
+      </c>
+      <c r="Y1330">
+        <v>0</v>
+      </c>
+      <c r="Z1330" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:27">
+      <c r="A1331" s="1">
+        <v>1329</v>
+      </c>
+      <c r="B1331">
+        <v>1366</v>
+      </c>
+      <c r="C1331" s="2">
+        <v>45411.45538194444</v>
+      </c>
+      <c r="D1331" s="2">
+        <v>45411.53233796296</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1331" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1331">
+        <v>82</v>
+      </c>
+      <c r="I1331">
+        <v>0</v>
+      </c>
+      <c r="J1331">
+        <v>0</v>
+      </c>
+      <c r="K1331">
+        <v>0</v>
+      </c>
+      <c r="L1331">
+        <v>0</v>
+      </c>
+      <c r="M1331">
+        <v>0</v>
+      </c>
+      <c r="N1331">
+        <v>0</v>
+      </c>
+      <c r="O1331">
+        <v>82</v>
+      </c>
+      <c r="P1331">
+        <v>0</v>
+      </c>
+      <c r="Q1331">
+        <v>196</v>
+      </c>
+      <c r="R1331">
+        <v>1</v>
+      </c>
+      <c r="S1331">
+        <v>0</v>
+      </c>
+      <c r="T1331">
+        <v>0</v>
+      </c>
+      <c r="U1331">
+        <v>0</v>
+      </c>
+      <c r="V1331">
+        <v>0</v>
+      </c>
+      <c r="W1331">
+        <v>0</v>
+      </c>
+      <c r="X1331">
+        <v>195</v>
+      </c>
+      <c r="Y1331">
+        <v>0</v>
+      </c>
+      <c r="Z1331" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:27">
+      <c r="A1332" s="1">
+        <v>1330</v>
+      </c>
+      <c r="B1332">
+        <v>1367</v>
+      </c>
+      <c r="C1332" s="2">
+        <v>45411.53236111111</v>
+      </c>
+      <c r="D1332" s="2">
+        <v>45411.5328125</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1332" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1332">
+        <v>82</v>
+      </c>
+      <c r="I1332">
+        <v>0</v>
+      </c>
+      <c r="J1332">
+        <v>0</v>
+      </c>
+      <c r="K1332">
+        <v>0</v>
+      </c>
+      <c r="L1332">
+        <v>0</v>
+      </c>
+      <c r="M1332">
+        <v>0</v>
+      </c>
+      <c r="N1332">
+        <v>0</v>
+      </c>
+      <c r="O1332">
+        <v>82</v>
+      </c>
+      <c r="P1332">
+        <v>0</v>
+      </c>
+      <c r="Q1332">
+        <v>195</v>
+      </c>
+      <c r="R1332">
+        <v>0</v>
+      </c>
+      <c r="S1332">
+        <v>0</v>
+      </c>
+      <c r="T1332">
+        <v>0</v>
+      </c>
+      <c r="U1332">
+        <v>0</v>
+      </c>
+      <c r="V1332">
+        <v>0</v>
+      </c>
+      <c r="W1332">
+        <v>0</v>
+      </c>
+      <c r="X1332">
+        <v>195</v>
+      </c>
+      <c r="Y1332">
+        <v>0</v>
+      </c>
+      <c r="Z1332" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:27">
+      <c r="A1333" s="1">
+        <v>1331</v>
+      </c>
+      <c r="B1333">
+        <v>1368</v>
+      </c>
+      <c r="C1333" s="2">
+        <v>45411.5500925926</v>
+      </c>
+      <c r="D1333" s="2">
+        <v>45411.55122685185</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1333" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1333">
+        <v>3</v>
+      </c>
+      <c r="I1333">
+        <v>0</v>
+      </c>
+      <c r="J1333">
+        <v>0</v>
+      </c>
+      <c r="K1333">
+        <v>0</v>
+      </c>
+      <c r="L1333">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1333" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1333">
+        <v>3</v>
+      </c>
+      <c r="P1333" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1333">
+        <v>0</v>
+      </c>
+      <c r="R1333">
+        <v>0</v>
+      </c>
+      <c r="S1333">
+        <v>0</v>
+      </c>
+      <c r="T1333">
+        <v>0</v>
+      </c>
+      <c r="U1333">
+        <v>0</v>
+      </c>
+      <c r="V1333" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1333" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1333">
+        <v>0</v>
+      </c>
+      <c r="Y1333" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z1333" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:27">
+      <c r="A1334" s="1">
+        <v>1332</v>
+      </c>
+      <c r="B1334">
+        <v>1369</v>
+      </c>
+      <c r="C1334" s="2">
+        <v>45411.58557870371</v>
+      </c>
+      <c r="D1334" s="2">
+        <v>45411.58688657408</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1334" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1334">
+        <v>59</v>
+      </c>
+      <c r="I1334">
+        <v>6</v>
+      </c>
+      <c r="J1334">
+        <v>0</v>
+      </c>
+      <c r="K1334">
+        <v>0</v>
+      </c>
+      <c r="L1334">
+        <v>0</v>
+      </c>
+      <c r="M1334">
+        <v>0</v>
+      </c>
+      <c r="N1334">
+        <v>0</v>
+      </c>
+      <c r="O1334">
+        <v>53</v>
+      </c>
+      <c r="P1334">
+        <v>0</v>
+      </c>
+      <c r="Q1334">
+        <v>10</v>
+      </c>
+      <c r="R1334">
+        <v>0</v>
+      </c>
+      <c r="S1334">
+        <v>0</v>
+      </c>
+      <c r="T1334">
+        <v>0</v>
+      </c>
+      <c r="U1334">
+        <v>0</v>
+      </c>
+      <c r="V1334">
+        <v>0</v>
+      </c>
+      <c r="W1334">
+        <v>0</v>
+      </c>
+      <c r="X1334">
+        <v>10</v>
+      </c>
+      <c r="Y1334">
+        <v>0</v>
+      </c>
+      <c r="Z1334" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:27">
+      <c r="A1335" s="1">
+        <v>1333</v>
+      </c>
+      <c r="B1335">
+        <v>1370</v>
+      </c>
+      <c r="C1335" s="2">
+        <v>45411.58690972222</v>
+      </c>
+      <c r="D1335" s="2">
+        <v>45411.58760416666</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1335" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1335">
+        <v>53</v>
+      </c>
+      <c r="I1335">
+        <v>1</v>
+      </c>
+      <c r="J1335">
+        <v>0</v>
+      </c>
+      <c r="K1335">
+        <v>0</v>
+      </c>
+      <c r="L1335">
+        <v>0</v>
+      </c>
+      <c r="M1335">
+        <v>0</v>
+      </c>
+      <c r="N1335">
+        <v>0</v>
+      </c>
+      <c r="O1335">
+        <v>52</v>
+      </c>
+      <c r="P1335">
+        <v>0</v>
+      </c>
+      <c r="Q1335">
+        <v>10</v>
+      </c>
+      <c r="R1335">
+        <v>0</v>
+      </c>
+      <c r="S1335">
+        <v>0</v>
+      </c>
+      <c r="T1335">
+        <v>0</v>
+      </c>
+      <c r="U1335">
+        <v>0</v>
+      </c>
+      <c r="V1335">
+        <v>0</v>
+      </c>
+      <c r="W1335">
+        <v>0</v>
+      </c>
+      <c r="X1335">
+        <v>10</v>
+      </c>
+      <c r="Y1335">
+        <v>0</v>
+      </c>
+      <c r="Z1335" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:27">
+      <c r="A1336" s="1">
+        <v>1334</v>
+      </c>
+      <c r="B1336">
+        <v>1371</v>
+      </c>
+      <c r="C1336" s="2">
+        <v>45411.58762731482</v>
+      </c>
+      <c r="D1336" s="2">
+        <v>45411.58834490741</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1336" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1336">
+        <v>52</v>
+      </c>
+      <c r="I1336">
+        <v>2</v>
+      </c>
+      <c r="J1336">
+        <v>0</v>
+      </c>
+      <c r="K1336">
+        <v>0</v>
+      </c>
+      <c r="L1336">
+        <v>0</v>
+      </c>
+      <c r="M1336">
+        <v>0</v>
+      </c>
+      <c r="N1336">
+        <v>0</v>
+      </c>
+      <c r="O1336">
+        <v>50</v>
+      </c>
+      <c r="P1336">
+        <v>0</v>
+      </c>
+      <c r="Q1336">
+        <v>10</v>
+      </c>
+      <c r="R1336">
+        <v>0</v>
+      </c>
+      <c r="S1336">
+        <v>0</v>
+      </c>
+      <c r="T1336">
+        <v>0</v>
+      </c>
+      <c r="U1336">
+        <v>0</v>
+      </c>
+      <c r="V1336">
+        <v>0</v>
+      </c>
+      <c r="W1336">
+        <v>0</v>
+      </c>
+      <c r="X1336">
+        <v>10</v>
+      </c>
+      <c r="Y1336">
+        <v>0</v>
+      </c>
+      <c r="Z1336" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:27">
+      <c r="A1337" s="1">
+        <v>1335</v>
+      </c>
+      <c r="B1337">
+        <v>1372</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>45411.66112268518</v>
+      </c>
+      <c r="D1337" s="2">
+        <v>45411.66231481481</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1337" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1337">
+        <v>16</v>
+      </c>
+      <c r="I1337">
+        <v>0</v>
+      </c>
+      <c r="J1337">
+        <v>0</v>
+      </c>
+      <c r="K1337">
+        <v>0</v>
+      </c>
+      <c r="L1337">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1337" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1337">
+        <v>16</v>
+      </c>
+      <c r="P1337">
+        <v>0</v>
+      </c>
+      <c r="Q1337">
+        <v>14</v>
+      </c>
+      <c r="R1337">
+        <v>0</v>
+      </c>
+      <c r="S1337">
+        <v>0</v>
+      </c>
+      <c r="T1337">
+        <v>0</v>
+      </c>
+      <c r="U1337">
+        <v>0</v>
+      </c>
+      <c r="V1337" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1337" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1337">
+        <v>14</v>
+      </c>
+      <c r="Y1337">
+        <v>0</v>
+      </c>
+      <c r="Z1337" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:27">
+      <c r="A1338" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B1338">
+        <v>1373</v>
+      </c>
+      <c r="C1338" s="2">
+        <v>45411.66387731482</v>
+      </c>
+      <c r="D1338" s="2">
+        <v>45411.66405092592</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1338" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1338">
+        <v>16</v>
+      </c>
+      <c r="I1338">
+        <v>0</v>
+      </c>
+      <c r="J1338">
+        <v>0</v>
+      </c>
+      <c r="K1338">
+        <v>0</v>
+      </c>
+      <c r="L1338">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1338" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1338">
+        <v>16</v>
+      </c>
+      <c r="P1338">
+        <v>0</v>
+      </c>
+      <c r="Q1338">
+        <v>14</v>
+      </c>
+      <c r="R1338">
+        <v>0</v>
+      </c>
+      <c r="S1338">
+        <v>0</v>
+      </c>
+      <c r="T1338">
+        <v>0</v>
+      </c>
+      <c r="U1338">
+        <v>0</v>
+      </c>
+      <c r="V1338" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1338" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1338">
+        <v>14</v>
+      </c>
+      <c r="Y1338">
+        <v>0</v>
+      </c>
+      <c r="Z1338" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:27">
+      <c r="A1339" s="1">
+        <v>1337</v>
+      </c>
+      <c r="B1339">
+        <v>1374</v>
+      </c>
+      <c r="C1339" s="2">
+        <v>45411.66417824074</v>
+      </c>
+      <c r="D1339" s="2">
+        <v>45411.66535879629</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1339" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1339">
+        <v>16</v>
+      </c>
+      <c r="I1339">
+        <v>0</v>
+      </c>
+      <c r="J1339">
+        <v>0</v>
+      </c>
+      <c r="K1339">
+        <v>0</v>
+      </c>
+      <c r="L1339">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1339" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1339">
+        <v>16</v>
+      </c>
+      <c r="P1339">
+        <v>0</v>
+      </c>
+      <c r="Q1339">
+        <v>14</v>
+      </c>
+      <c r="R1339">
+        <v>1</v>
+      </c>
+      <c r="S1339">
+        <v>0</v>
+      </c>
+      <c r="T1339">
+        <v>0</v>
+      </c>
+      <c r="U1339">
+        <v>0</v>
+      </c>
+      <c r="V1339" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1339" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1339">
+        <v>13</v>
+      </c>
+      <c r="Y1339">
+        <v>0</v>
+      </c>
+      <c r="Z1339" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:27">
+      <c r="A1340" s="1">
+        <v>1338</v>
+      </c>
+      <c r="B1340">
+        <v>1375</v>
+      </c>
+      <c r="C1340" s="2">
+        <v>45411.67575231481</v>
+      </c>
+      <c r="D1340" s="2">
+        <v>45411.67645833334</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1340" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1340">
+        <v>45</v>
+      </c>
+      <c r="I1340">
+        <v>0</v>
+      </c>
+      <c r="J1340">
+        <v>0</v>
+      </c>
+      <c r="K1340">
+        <v>0</v>
+      </c>
+      <c r="L1340">
+        <v>0</v>
+      </c>
+      <c r="M1340">
+        <v>0</v>
+      </c>
+      <c r="N1340">
+        <v>0</v>
+      </c>
+      <c r="O1340">
+        <v>45</v>
+      </c>
+      <c r="P1340">
+        <v>0</v>
+      </c>
+      <c r="Q1340">
+        <v>70</v>
+      </c>
+      <c r="R1340">
+        <v>5</v>
+      </c>
+      <c r="S1340">
+        <v>0</v>
+      </c>
+      <c r="T1340">
+        <v>0</v>
+      </c>
+      <c r="U1340">
+        <v>0</v>
+      </c>
+      <c r="V1340">
+        <v>0</v>
+      </c>
+      <c r="W1340">
+        <v>0</v>
+      </c>
+      <c r="X1340">
+        <v>65</v>
+      </c>
+      <c r="Y1340">
+        <v>0</v>
+      </c>
+      <c r="Z1340" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:27">
+      <c r="A1341" s="1">
+        <v>1339</v>
+      </c>
+      <c r="B1341">
+        <v>1376</v>
+      </c>
+      <c r="C1341" s="2">
+        <v>45411.67581018519</v>
+      </c>
+      <c r="D1341" s="2">
+        <v>45411.67792824074</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1341" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1341">
+        <v>5</v>
+      </c>
+      <c r="I1341">
+        <v>0</v>
+      </c>
+      <c r="J1341">
+        <v>0</v>
+      </c>
+      <c r="K1341">
+        <v>0</v>
+      </c>
+      <c r="L1341">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1341" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1341">
+        <v>5</v>
+      </c>
+      <c r="P1341">
+        <v>0</v>
+      </c>
+      <c r="Q1341">
+        <v>12</v>
+      </c>
+      <c r="R1341">
+        <v>0</v>
+      </c>
+      <c r="S1341">
+        <v>0</v>
+      </c>
+      <c r="T1341">
+        <v>0</v>
+      </c>
+      <c r="U1341">
+        <v>0</v>
+      </c>
+      <c r="V1341" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1341" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1341">
+        <v>12</v>
+      </c>
+      <c r="Y1341">
+        <v>0</v>
+      </c>
+      <c r="Z1341" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:27">
+      <c r="A1342" s="1">
+        <v>1340</v>
+      </c>
+      <c r="B1342">
+        <v>1377</v>
+      </c>
+      <c r="C1342" s="2">
+        <v>45411.68008101852</v>
+      </c>
+      <c r="D1342" s="2">
+        <v>45411.68181712963</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1342" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1342">
+        <v>17</v>
+      </c>
+      <c r="I1342">
+        <v>0</v>
+      </c>
+      <c r="J1342">
+        <v>0</v>
+      </c>
+      <c r="K1342">
+        <v>0</v>
+      </c>
+      <c r="L1342">
+        <v>0</v>
+      </c>
+      <c r="M1342">
+        <v>0</v>
+      </c>
+      <c r="N1342">
+        <v>0</v>
+      </c>
+      <c r="O1342">
+        <v>17</v>
+      </c>
+      <c r="P1342">
+        <v>0</v>
+      </c>
+      <c r="Q1342">
+        <v>39</v>
+      </c>
+      <c r="R1342">
+        <v>4</v>
+      </c>
+      <c r="S1342">
+        <v>0</v>
+      </c>
+      <c r="T1342">
+        <v>0</v>
+      </c>
+      <c r="U1342">
+        <v>0</v>
+      </c>
+      <c r="V1342">
+        <v>0</v>
+      </c>
+      <c r="W1342">
+        <v>0</v>
+      </c>
+      <c r="X1342">
+        <v>35</v>
+      </c>
+      <c r="Y1342">
+        <v>0</v>
+      </c>
+      <c r="Z1342" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:27">
+      <c r="A1343" s="1">
+        <v>1341</v>
+      </c>
+      <c r="B1343">
+        <v>1378</v>
+      </c>
+      <c r="C1343" s="2">
+        <v>45411.68098379629</v>
+      </c>
+      <c r="D1343" s="2">
+        <v>45411.68253472223</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1343" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1343">
+        <v>19</v>
+      </c>
+      <c r="I1343">
+        <v>0</v>
+      </c>
+      <c r="J1343">
+        <v>0</v>
+      </c>
+      <c r="K1343">
+        <v>0</v>
+      </c>
+      <c r="L1343">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1343" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1343">
+        <v>19</v>
+      </c>
+      <c r="P1343">
+        <v>0</v>
+      </c>
+      <c r="Q1343">
+        <v>36</v>
+      </c>
+      <c r="R1343">
+        <v>0</v>
+      </c>
+      <c r="S1343">
+        <v>0</v>
+      </c>
+      <c r="T1343">
+        <v>0</v>
+      </c>
+      <c r="U1343">
+        <v>0</v>
+      </c>
+      <c r="V1343" t="s">
+        <v>316</v>
+      </c>
+      <c r="W1343" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1343">
+        <v>36</v>
+      </c>
+      <c r="Y1343">
+        <v>0</v>
+      </c>
+      <c r="Z1343" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:27">
+      <c r="A1344" s="1">
+        <v>1342</v>
+      </c>
+      <c r="B1344">
+        <v>1379</v>
+      </c>
+      <c r="C1344" s="2">
+        <v>45411.68666666667</v>
+      </c>
+      <c r="D1344" s="2">
+        <v>45411.68791666667</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1344" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1344">
+        <v>6</v>
+      </c>
+      <c r="I1344">
+        <v>19</v>
+      </c>
+      <c r="J1344">
+        <v>0</v>
+      </c>
+      <c r="K1344">
+        <v>0</v>
+      </c>
+      <c r="L1344">
+        <v>25</v>
+      </c>
+      <c r="M1344" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1344" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1344">
+        <v>6</v>
+      </c>
+      <c r="P1344">
+        <v>0</v>
+      </c>
+      <c r="Q1344">
+        <v>0</v>
+      </c>
+      <c r="R1344">
+        <v>80</v>
+      </c>
+      <c r="S1344">
+        <v>0</v>
+      </c>
+      <c r="T1344">
+        <v>0</v>
+      </c>
+      <c r="U1344">
+        <v>80</v>
+      </c>
+      <c r="V1344" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1344" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1344">
+        <v>0</v>
+      </c>
+      <c r="Y1344">
+        <v>0</v>
+      </c>
+      <c r="Z1344" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA1344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:27">
+      <c r="A1345" s="1">
+        <v>1343</v>
+      </c>
+      <c r="B1345">
+        <v>1380</v>
+      </c>
+      <c r="C1345" s="2">
+        <v>45411.69017361111</v>
+      </c>
+      <c r="D1345" s="2">
+        <v>45411.69101851852</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1345" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1345">
+        <v>4</v>
+      </c>
+      <c r="I1345">
+        <v>0</v>
+      </c>
+      <c r="J1345">
+        <v>0</v>
+      </c>
+      <c r="K1345">
+        <v>0</v>
+      </c>
+      <c r="L1345">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1345">
+        <v>4</v>
+      </c>
+      <c r="P1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1345">
+        <v>23</v>
+      </c>
+      <c r="R1345">
+        <v>0</v>
+      </c>
+      <c r="S1345">
+        <v>0</v>
+      </c>
+      <c r="T1345">
+        <v>0</v>
+      </c>
+      <c r="U1345">
+        <v>0</v>
+      </c>
+      <c r="V1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1345">
+        <v>23</v>
+      </c>
+      <c r="Y1345" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1345" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:27">
+      <c r="A1346" s="1">
+        <v>1344</v>
+      </c>
+      <c r="B1346">
+        <v>1381</v>
+      </c>
+      <c r="C1346" s="2">
+        <v>45411.69314814815</v>
+      </c>
+      <c r="D1346" s="2">
+        <v>45411.69369212963</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1346" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1346">
+        <v>4</v>
+      </c>
+      <c r="I1346">
+        <v>0</v>
+      </c>
+      <c r="J1346">
+        <v>0</v>
+      </c>
+      <c r="K1346">
+        <v>0</v>
+      </c>
+      <c r="L1346">
+        <v>0</v>
+      </c>
+      <c r="M1346">
+        <v>0</v>
+      </c>
+      <c r="N1346">
+        <v>0</v>
+      </c>
+      <c r="O1346">
+        <v>4</v>
+      </c>
+      <c r="P1346">
+        <v>0</v>
+      </c>
+      <c r="Q1346">
+        <v>1</v>
+      </c>
+      <c r="R1346">
+        <v>0</v>
+      </c>
+      <c r="S1346">
+        <v>0</v>
+      </c>
+      <c r="T1346">
+        <v>0</v>
+      </c>
+      <c r="U1346">
+        <v>0</v>
+      </c>
+      <c r="V1346">
+        <v>0</v>
+      </c>
+      <c r="W1346">
+        <v>0</v>
+      </c>
+      <c r="X1346">
+        <v>1</v>
+      </c>
+      <c r="Y1346">
+        <v>0</v>
+      </c>
+      <c r="Z1346" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:27">
+      <c r="A1347" s="1">
+        <v>1345</v>
+      </c>
+      <c r="B1347">
+        <v>1382</v>
+      </c>
+      <c r="C1347" s="2">
+        <v>45411.69416666667</v>
+      </c>
+      <c r="D1347" s="2">
+        <v>45411.69497685185</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1347" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1347">
+        <v>14</v>
+      </c>
+      <c r="I1347">
+        <v>3</v>
+      </c>
+      <c r="J1347">
+        <v>0</v>
+      </c>
+      <c r="K1347">
+        <v>0</v>
+      </c>
+      <c r="L1347">
+        <v>0</v>
+      </c>
+      <c r="M1347">
+        <v>0</v>
+      </c>
+      <c r="N1347">
+        <v>0</v>
+      </c>
+      <c r="O1347">
+        <v>11</v>
+      </c>
+      <c r="P1347">
+        <v>0</v>
+      </c>
+      <c r="Q1347">
+        <v>0</v>
+      </c>
+      <c r="R1347">
+        <v>0</v>
+      </c>
+      <c r="S1347">
+        <v>0</v>
+      </c>
+      <c r="T1347">
+        <v>0</v>
+      </c>
+      <c r="U1347">
+        <v>0</v>
+      </c>
+      <c r="V1347">
+        <v>0</v>
+      </c>
+      <c r="W1347">
+        <v>0</v>
+      </c>
+      <c r="X1347">
+        <v>0</v>
+      </c>
+      <c r="Y1347">
+        <v>0</v>
+      </c>
+      <c r="Z1347" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:27">
+      <c r="A1348" s="1">
+        <v>1346</v>
+      </c>
+      <c r="B1348">
+        <v>1383</v>
+      </c>
+      <c r="C1348" s="2">
+        <v>45411.69318287037</v>
+      </c>
+      <c r="D1348" s="2">
+        <v>45411.69594907408</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1348" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1348">
+        <v>5</v>
+      </c>
+      <c r="I1348">
+        <v>0</v>
+      </c>
+      <c r="J1348">
+        <v>0</v>
+      </c>
+      <c r="K1348">
+        <v>0</v>
+      </c>
+      <c r="L1348">
+        <v>0</v>
+      </c>
+      <c r="M1348">
+        <v>0</v>
+      </c>
+      <c r="N1348">
+        <v>0</v>
+      </c>
+      <c r="O1348">
+        <v>5</v>
+      </c>
+      <c r="P1348">
+        <v>0</v>
+      </c>
+      <c r="Q1348">
+        <v>6</v>
+      </c>
+      <c r="R1348">
+        <v>1</v>
+      </c>
+      <c r="S1348">
+        <v>0</v>
+      </c>
+      <c r="T1348">
+        <v>0</v>
+      </c>
+      <c r="U1348">
+        <v>0</v>
+      </c>
+      <c r="V1348">
+        <v>0</v>
+      </c>
+      <c r="W1348">
+        <v>0</v>
+      </c>
+      <c r="X1348">
+        <v>5</v>
+      </c>
+      <c r="Y1348">
+        <v>0</v>
+      </c>
+      <c r="Z1348" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:27">
+      <c r="A1349" s="1">
+        <v>1347</v>
+      </c>
+      <c r="B1349">
+        <v>1384</v>
+      </c>
+      <c r="C1349" s="2">
+        <v>45411.69666666666</v>
+      </c>
+      <c r="D1349" s="2">
+        <v>45411.70134259259</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1349" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1349">
+        <v>14</v>
+      </c>
+      <c r="I1349">
+        <v>0</v>
+      </c>
+      <c r="J1349">
+        <v>0</v>
+      </c>
+      <c r="K1349">
+        <v>0</v>
+      </c>
+      <c r="L1349">
+        <v>0</v>
+      </c>
+      <c r="M1349">
+        <v>0</v>
+      </c>
+      <c r="N1349">
+        <v>0</v>
+      </c>
+      <c r="O1349">
+        <v>14</v>
+      </c>
+      <c r="P1349">
+        <v>0</v>
+      </c>
+      <c r="Q1349">
+        <v>53</v>
+      </c>
+      <c r="R1349">
+        <v>2</v>
+      </c>
+      <c r="S1349">
+        <v>0</v>
+      </c>
+      <c r="T1349">
+        <v>0</v>
+      </c>
+      <c r="U1349">
+        <v>0</v>
+      </c>
+      <c r="V1349">
+        <v>0</v>
+      </c>
+      <c r="W1349">
+        <v>0</v>
+      </c>
+      <c r="X1349">
+        <v>51</v>
+      </c>
+      <c r="Y1349">
+        <v>0</v>
+      </c>
+      <c r="Z1349" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:27">
+      <c r="A1350" s="1">
+        <v>1348</v>
+      </c>
+      <c r="B1350">
+        <v>1385</v>
+      </c>
+      <c r="C1350" s="2">
+        <v>45411.70085648148</v>
+      </c>
+      <c r="D1350" s="2">
+        <v>45411.70163194444</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1350" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1350">
+        <v>23</v>
+      </c>
+      <c r="I1350">
+        <v>0</v>
+      </c>
+      <c r="J1350">
+        <v>0</v>
+      </c>
+      <c r="K1350">
+        <v>0</v>
+      </c>
+      <c r="L1350">
+        <v>0</v>
+      </c>
+      <c r="M1350">
+        <v>0</v>
+      </c>
+      <c r="N1350">
+        <v>0</v>
+      </c>
+      <c r="O1350">
+        <v>23</v>
+      </c>
+      <c r="P1350">
+        <v>0</v>
+      </c>
+      <c r="Q1350">
+        <v>28</v>
+      </c>
+      <c r="R1350">
+        <v>0</v>
+      </c>
+      <c r="S1350">
+        <v>0</v>
+      </c>
+      <c r="T1350">
+        <v>0</v>
+      </c>
+      <c r="U1350">
+        <v>0</v>
+      </c>
+      <c r="V1350">
+        <v>0</v>
+      </c>
+      <c r="W1350">
+        <v>0</v>
+      </c>
+      <c r="X1350">
+        <v>28</v>
+      </c>
+      <c r="Y1350">
+        <v>0</v>
+      </c>
+      <c r="Z1350" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:27">
+      <c r="A1351" s="1">
+        <v>1349</v>
+      </c>
+      <c r="B1351">
+        <v>1386</v>
+      </c>
+      <c r="C1351" s="2">
+        <v>45411.70165509259</v>
+      </c>
+      <c r="D1351" s="2">
+        <v>45411.70207175926</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1351" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1351">
+        <v>23</v>
+      </c>
+      <c r="I1351">
+        <v>0</v>
+      </c>
+      <c r="J1351">
+        <v>0</v>
+      </c>
+      <c r="K1351">
+        <v>0</v>
+      </c>
+      <c r="L1351">
+        <v>0</v>
+      </c>
+      <c r="M1351">
+        <v>0</v>
+      </c>
+      <c r="N1351">
+        <v>0</v>
+      </c>
+      <c r="O1351">
+        <v>23</v>
+      </c>
+      <c r="P1351">
+        <v>0</v>
+      </c>
+      <c r="Q1351">
+        <v>28</v>
+      </c>
+      <c r="R1351">
+        <v>0</v>
+      </c>
+      <c r="S1351">
+        <v>0</v>
+      </c>
+      <c r="T1351">
+        <v>0</v>
+      </c>
+      <c r="U1351">
+        <v>0</v>
+      </c>
+      <c r="V1351">
+        <v>0</v>
+      </c>
+      <c r="W1351">
+        <v>0</v>
+      </c>
+      <c r="X1351">
+        <v>28</v>
+      </c>
+      <c r="Y1351">
+        <v>0</v>
+      </c>
+      <c r="Z1351" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:27">
+      <c r="A1352" s="1">
+        <v>1350</v>
+      </c>
+      <c r="B1352">
+        <v>1387</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>45411.70211805555</v>
+      </c>
+      <c r="D1352" s="2">
+        <v>45411.70311342592</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1352" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1352">
+        <v>23</v>
+      </c>
+      <c r="I1352">
+        <v>0</v>
+      </c>
+      <c r="J1352">
+        <v>0</v>
+      </c>
+      <c r="K1352">
+        <v>5</v>
+      </c>
+      <c r="L1352">
+        <v>0</v>
+      </c>
+      <c r="M1352">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="s">
+        <v>207</v>
+      </c>
+      <c r="O1352">
+        <v>18</v>
+      </c>
+      <c r="P1352">
+        <v>0</v>
+      </c>
+      <c r="Q1352">
+        <v>28</v>
+      </c>
+      <c r="R1352">
+        <v>0</v>
+      </c>
+      <c r="S1352">
+        <v>0</v>
+      </c>
+      <c r="T1352">
+        <v>0</v>
+      </c>
+      <c r="U1352">
+        <v>0</v>
+      </c>
+      <c r="V1352">
+        <v>0</v>
+      </c>
+      <c r="W1352">
+        <v>0</v>
+      </c>
+      <c r="X1352">
+        <v>28</v>
+      </c>
+      <c r="Y1352">
+        <v>0</v>
+      </c>
+      <c r="Z1352" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:27">
+      <c r="A1353" s="1">
+        <v>1351</v>
+      </c>
+      <c r="B1353">
+        <v>1388</v>
+      </c>
+      <c r="C1353" s="2">
+        <v>45411.70582175926</v>
+      </c>
+      <c r="D1353" s="2">
+        <v>45411.70668981481</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1353" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1353">
+        <v>163</v>
+      </c>
+      <c r="I1353">
+        <v>1</v>
+      </c>
+      <c r="J1353">
+        <v>0</v>
+      </c>
+      <c r="K1353">
+        <v>0</v>
+      </c>
+      <c r="L1353">
+        <v>0</v>
+      </c>
+      <c r="M1353">
+        <v>0</v>
+      </c>
+      <c r="N1353">
+        <v>0</v>
+      </c>
+      <c r="O1353">
+        <v>162</v>
+      </c>
+      <c r="P1353">
+        <v>0</v>
+      </c>
+      <c r="Q1353">
+        <v>65</v>
+      </c>
+      <c r="R1353">
+        <v>8</v>
+      </c>
+      <c r="S1353">
+        <v>0</v>
+      </c>
+      <c r="T1353">
+        <v>0</v>
+      </c>
+      <c r="U1353">
+        <v>0</v>
+      </c>
+      <c r="V1353">
+        <v>0</v>
+      </c>
+      <c r="W1353">
+        <v>0</v>
+      </c>
+      <c r="X1353">
+        <v>57</v>
+      </c>
+      <c r="Y1353">
+        <v>0</v>
+      </c>
+      <c r="Z1353" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:27">
+      <c r="A1354" s="1">
+        <v>1352</v>
+      </c>
+      <c r="B1354">
+        <v>1389</v>
+      </c>
+      <c r="C1354" s="2">
+        <v>45411.71997685185</v>
+      </c>
+      <c r="D1354" s="2">
+        <v>45411.72145833333</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1354" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1354">
+        <v>127</v>
+      </c>
+      <c r="I1354">
+        <v>1</v>
+      </c>
+      <c r="J1354">
+        <v>0</v>
+      </c>
+      <c r="K1354">
+        <v>0</v>
+      </c>
+      <c r="L1354">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1354" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1354">
+        <v>126</v>
+      </c>
+      <c r="P1354" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1354">
+        <v>91</v>
+      </c>
+      <c r="R1354">
+        <v>2</v>
+      </c>
+      <c r="S1354">
+        <v>0</v>
+      </c>
+      <c r="T1354">
+        <v>0</v>
+      </c>
+      <c r="U1354">
+        <v>0</v>
+      </c>
+      <c r="V1354" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1354" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1354">
+        <v>89</v>
+      </c>
+      <c r="Y1354" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1354" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:27">
+      <c r="A1355" s="1">
+        <v>1353</v>
+      </c>
+      <c r="B1355">
+        <v>1390</v>
+      </c>
+      <c r="C1355" s="2">
+        <v>45411.72096064815</v>
+      </c>
+      <c r="D1355" s="2">
+        <v>45411.72146990741</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1355" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1355">
+        <v>26</v>
+      </c>
+      <c r="I1355">
+        <v>0</v>
+      </c>
+      <c r="J1355">
+        <v>0</v>
+      </c>
+      <c r="K1355">
+        <v>0</v>
+      </c>
+      <c r="L1355">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1355" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1355">
+        <v>26</v>
+      </c>
+      <c r="P1355">
+        <v>0</v>
+      </c>
+      <c r="Q1355">
+        <v>103</v>
+      </c>
+      <c r="R1355">
+        <v>2</v>
+      </c>
+      <c r="S1355">
+        <v>0</v>
+      </c>
+      <c r="T1355">
+        <v>0</v>
+      </c>
+      <c r="U1355">
+        <v>0</v>
+      </c>
+      <c r="V1355" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1355" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1355">
+        <v>101</v>
+      </c>
+      <c r="Y1355">
+        <v>0</v>
+      </c>
+      <c r="Z1355" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:27">
+      <c r="A1356" s="1">
+        <v>1354</v>
+      </c>
+      <c r="B1356">
+        <v>1391</v>
+      </c>
+      <c r="C1356" s="2">
+        <v>45411.72174768519</v>
+      </c>
+      <c r="D1356" s="2">
+        <v>45411.72232638889</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1356" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1356">
+        <v>13</v>
+      </c>
+      <c r="I1356">
+        <v>0</v>
+      </c>
+      <c r="J1356">
+        <v>0</v>
+      </c>
+      <c r="K1356">
+        <v>0</v>
+      </c>
+      <c r="L1356">
+        <v>0</v>
+      </c>
+      <c r="M1356">
+        <v>0</v>
+      </c>
+      <c r="N1356">
+        <v>0</v>
+      </c>
+      <c r="O1356">
+        <v>13</v>
+      </c>
+      <c r="P1356">
+        <v>0</v>
+      </c>
+      <c r="Q1356">
+        <v>84</v>
+      </c>
+      <c r="R1356">
+        <v>2</v>
+      </c>
+      <c r="S1356">
+        <v>0</v>
+      </c>
+      <c r="T1356">
+        <v>0</v>
+      </c>
+      <c r="U1356">
+        <v>0</v>
+      </c>
+      <c r="V1356">
+        <v>0</v>
+      </c>
+      <c r="W1356">
+        <v>0</v>
+      </c>
+      <c r="X1356">
+        <v>82</v>
+      </c>
+      <c r="Y1356">
+        <v>0</v>
+      </c>
+      <c r="Z1356" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:27">
+      <c r="A1357" s="1">
+        <v>1355</v>
+      </c>
+      <c r="B1357">
+        <v>1392</v>
+      </c>
+      <c r="C1357" s="2">
+        <v>45411.72246527778</v>
+      </c>
+      <c r="D1357" s="2">
+        <v>45411.72321759259</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1357" s="2">
+        <v>45408</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1357">
+        <v>30</v>
+      </c>
+      <c r="I1357">
+        <v>0</v>
+      </c>
+      <c r="J1357">
+        <v>0</v>
+      </c>
+      <c r="K1357">
+        <v>0</v>
+      </c>
+      <c r="L1357">
+        <v>0</v>
+      </c>
+      <c r="M1357">
+        <v>0</v>
+      </c>
+      <c r="N1357">
+        <v>0</v>
+      </c>
+      <c r="O1357">
+        <v>30</v>
+      </c>
+      <c r="P1357">
+        <v>0</v>
+      </c>
+      <c r="Q1357">
+        <v>23</v>
+      </c>
+      <c r="R1357">
+        <v>1</v>
+      </c>
+      <c r="S1357">
+        <v>0</v>
+      </c>
+      <c r="T1357">
+        <v>0</v>
+      </c>
+      <c r="U1357">
+        <v>0</v>
+      </c>
+      <c r="V1357">
+        <v>0</v>
+      </c>
+      <c r="W1357">
+        <v>0</v>
+      </c>
+      <c r="X1357">
+        <v>22</v>
+      </c>
+      <c r="Y1357">
+        <v>0</v>
+      </c>
+      <c r="Z1357" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:27">
+      <c r="A1358" s="1">
+        <v>1356</v>
+      </c>
+      <c r="B1358">
+        <v>1393</v>
+      </c>
+      <c r="C1358" s="2">
+        <v>45411.72326388889</v>
+      </c>
+      <c r="D1358" s="2">
+        <v>45411.72373842593</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1358" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1358">
+        <v>30</v>
+      </c>
+      <c r="I1358">
+        <v>0</v>
+      </c>
+      <c r="J1358">
+        <v>0</v>
+      </c>
+      <c r="K1358">
+        <v>0</v>
+      </c>
+      <c r="L1358">
+        <v>0</v>
+      </c>
+      <c r="M1358">
+        <v>0</v>
+      </c>
+      <c r="N1358">
+        <v>0</v>
+      </c>
+      <c r="O1358">
+        <v>30</v>
+      </c>
+      <c r="P1358">
+        <v>0</v>
+      </c>
+      <c r="Q1358">
+        <v>22</v>
+      </c>
+      <c r="R1358">
+        <v>0</v>
+      </c>
+      <c r="S1358">
+        <v>0</v>
+      </c>
+      <c r="T1358">
+        <v>0</v>
+      </c>
+      <c r="U1358">
+        <v>0</v>
+      </c>
+      <c r="V1358">
+        <v>0</v>
+      </c>
+      <c r="W1358">
+        <v>0</v>
+      </c>
+      <c r="X1358">
+        <v>22</v>
+      </c>
+      <c r="Y1358">
+        <v>0</v>
+      </c>
+      <c r="Z1358" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:27">
+      <c r="A1359" s="1">
+        <v>1357</v>
+      </c>
+      <c r="B1359">
+        <v>1394</v>
+      </c>
+      <c r="C1359" s="2">
+        <v>45411.72523148148</v>
+      </c>
+      <c r="D1359" s="2">
+        <v>45411.72787037037</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1359" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1359">
+        <v>16</v>
+      </c>
+      <c r="I1359">
+        <v>1</v>
+      </c>
+      <c r="J1359">
+        <v>0</v>
+      </c>
+      <c r="K1359">
+        <v>0</v>
+      </c>
+      <c r="L1359">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1359" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1359">
+        <v>15</v>
+      </c>
+      <c r="P1359">
+        <v>0</v>
+      </c>
+      <c r="Q1359">
+        <v>18</v>
+      </c>
+      <c r="R1359">
+        <v>12</v>
+      </c>
+      <c r="S1359">
+        <v>0</v>
+      </c>
+      <c r="T1359">
+        <v>0</v>
+      </c>
+      <c r="U1359">
+        <v>0</v>
+      </c>
+      <c r="V1359" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1359" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1359">
+        <v>6</v>
+      </c>
+      <c r="Y1359">
+        <v>0</v>
+      </c>
+      <c r="Z1359" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:27">
+      <c r="A1360" s="1">
+        <v>1358</v>
+      </c>
+      <c r="B1360">
+        <v>1395</v>
+      </c>
+      <c r="C1360" s="2">
+        <v>45411.72638888889</v>
+      </c>
+      <c r="D1360" s="2">
+        <v>45411.72832175926</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1360" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1360">
+        <v>125</v>
+      </c>
+      <c r="I1360">
+        <v>0</v>
+      </c>
+      <c r="J1360">
+        <v>0</v>
+      </c>
+      <c r="K1360">
+        <v>0</v>
+      </c>
+      <c r="L1360">
+        <v>0</v>
+      </c>
+      <c r="M1360">
+        <v>0</v>
+      </c>
+      <c r="N1360">
+        <v>0</v>
+      </c>
+      <c r="O1360">
+        <v>125</v>
+      </c>
+      <c r="P1360">
+        <v>0</v>
+      </c>
+      <c r="Q1360">
+        <v>73</v>
+      </c>
+      <c r="R1360">
+        <v>8</v>
+      </c>
+      <c r="S1360">
+        <v>0</v>
+      </c>
+      <c r="T1360">
+        <v>0</v>
+      </c>
+      <c r="U1360">
+        <v>0</v>
+      </c>
+      <c r="V1360">
+        <v>0</v>
+      </c>
+      <c r="W1360">
+        <v>0</v>
+      </c>
+      <c r="X1360">
+        <v>65</v>
+      </c>
+      <c r="Y1360">
+        <v>0</v>
+      </c>
+      <c r="Z1360" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:27">
+      <c r="A1361" s="1">
+        <v>1359</v>
+      </c>
+      <c r="B1361">
+        <v>1396</v>
+      </c>
+      <c r="C1361" s="2">
+        <v>45411.73457175926</v>
+      </c>
+      <c r="D1361" s="2">
+        <v>45411.73614583333</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1361" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1361">
+        <v>23</v>
+      </c>
+      <c r="I1361">
+        <v>1</v>
+      </c>
+      <c r="J1361">
+        <v>0</v>
+      </c>
+      <c r="K1361">
+        <v>0</v>
+      </c>
+      <c r="L1361">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1361" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1361">
+        <v>22</v>
+      </c>
+      <c r="P1361">
+        <v>0</v>
+      </c>
+      <c r="Q1361">
+        <v>73</v>
+      </c>
+      <c r="R1361">
+        <v>8</v>
+      </c>
+      <c r="S1361">
+        <v>0</v>
+      </c>
+      <c r="T1361">
+        <v>0</v>
+      </c>
+      <c r="U1361">
+        <v>0</v>
+      </c>
+      <c r="V1361" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1361" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1361">
+        <v>65</v>
+      </c>
+      <c r="Y1361">
+        <v>0</v>
+      </c>
+      <c r="Z1361" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:27">
+      <c r="A1362" s="1">
+        <v>1360</v>
+      </c>
+      <c r="B1362">
+        <v>1397</v>
+      </c>
+      <c r="C1362" s="2">
+        <v>45411.74299768519</v>
+      </c>
+      <c r="D1362" s="2">
+        <v>45411.74381944445</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1362" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1362">
+        <v>100</v>
+      </c>
+      <c r="I1362">
+        <v>4</v>
+      </c>
+      <c r="J1362">
+        <v>0</v>
+      </c>
+      <c r="K1362">
+        <v>0</v>
+      </c>
+      <c r="L1362">
+        <v>0</v>
+      </c>
+      <c r="M1362">
+        <v>0</v>
+      </c>
+      <c r="N1362">
+        <v>0</v>
+      </c>
+      <c r="O1362">
+        <v>96</v>
+      </c>
+      <c r="P1362">
+        <v>0</v>
+      </c>
+      <c r="Q1362">
+        <v>58</v>
+      </c>
+      <c r="R1362">
+        <v>7</v>
+      </c>
+      <c r="S1362">
+        <v>0</v>
+      </c>
+      <c r="T1362">
+        <v>0</v>
+      </c>
+      <c r="U1362">
+        <v>0</v>
+      </c>
+      <c r="V1362">
+        <v>0</v>
+      </c>
+      <c r="W1362">
+        <v>0</v>
+      </c>
+      <c r="X1362">
+        <v>51</v>
+      </c>
+      <c r="Y1362">
+        <v>0</v>
+      </c>
+      <c r="Z1362" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:27">
+      <c r="A1363" s="1">
+        <v>1361</v>
+      </c>
+      <c r="B1363">
+        <v>1398</v>
+      </c>
+      <c r="C1363" s="2">
+        <v>45411.74349537037</v>
+      </c>
+      <c r="D1363" s="2">
+        <v>45411.74436342593</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1363" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1363">
+        <v>4</v>
+      </c>
+      <c r="I1363">
+        <v>0</v>
+      </c>
+      <c r="J1363">
+        <v>0</v>
+      </c>
+      <c r="K1363">
+        <v>0</v>
+      </c>
+      <c r="L1363">
+        <v>0</v>
+      </c>
+      <c r="M1363">
+        <v>0</v>
+      </c>
+      <c r="N1363">
+        <v>0</v>
+      </c>
+      <c r="O1363">
+        <v>4</v>
+      </c>
+      <c r="P1363">
+        <v>0</v>
+      </c>
+      <c r="Q1363">
+        <v>7</v>
+      </c>
+      <c r="R1363">
+        <v>0</v>
+      </c>
+      <c r="S1363">
+        <v>0</v>
+      </c>
+      <c r="T1363">
+        <v>0</v>
+      </c>
+      <c r="U1363">
+        <v>0</v>
+      </c>
+      <c r="V1363">
+        <v>0</v>
+      </c>
+      <c r="W1363">
+        <v>0</v>
+      </c>
+      <c r="X1363">
+        <v>7</v>
+      </c>
+      <c r="Y1363">
+        <v>0</v>
+      </c>
+      <c r="Z1363" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:27">
+      <c r="A1364" s="1">
+        <v>1362</v>
+      </c>
+      <c r="B1364">
+        <v>1399</v>
+      </c>
+      <c r="C1364" s="2">
+        <v>45411.74648148148</v>
+      </c>
+      <c r="D1364" s="2">
+        <v>45411.74695601852</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1364" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1364">
+        <v>21</v>
+      </c>
+      <c r="I1364">
+        <v>0</v>
+      </c>
+      <c r="J1364">
+        <v>0</v>
+      </c>
+      <c r="K1364">
+        <v>0</v>
+      </c>
+      <c r="L1364">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1364" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1364">
+        <v>21</v>
+      </c>
+      <c r="P1364">
+        <v>0</v>
+      </c>
+      <c r="Q1364">
+        <v>83</v>
+      </c>
+      <c r="R1364">
+        <v>2</v>
+      </c>
+      <c r="S1364">
+        <v>0</v>
+      </c>
+      <c r="T1364">
+        <v>0</v>
+      </c>
+      <c r="U1364">
+        <v>0</v>
+      </c>
+      <c r="V1364" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1364" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1364">
+        <v>81</v>
+      </c>
+      <c r="Y1364">
+        <v>0</v>
+      </c>
+      <c r="Z1364" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:27">
+      <c r="A1365" s="1">
+        <v>1363</v>
+      </c>
+      <c r="B1365">
+        <v>1400</v>
+      </c>
+      <c r="C1365" s="2">
+        <v>45411.74664351852</v>
+      </c>
+      <c r="D1365" s="2">
+        <v>45411.74746527777</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1365" s="2">
+        <v>45409</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1365">
+        <v>40</v>
+      </c>
+      <c r="I1365">
+        <v>7</v>
+      </c>
+      <c r="J1365">
+        <v>0</v>
+      </c>
+      <c r="K1365">
+        <v>0</v>
+      </c>
+      <c r="L1365">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1365" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1365">
+        <v>33</v>
+      </c>
+      <c r="P1365">
+        <v>0</v>
+      </c>
+      <c r="Q1365">
+        <v>5</v>
+      </c>
+      <c r="R1365">
+        <v>0</v>
+      </c>
+      <c r="S1365">
+        <v>0</v>
+      </c>
+      <c r="T1365">
+        <v>0</v>
+      </c>
+      <c r="U1365">
+        <v>0</v>
+      </c>
+      <c r="V1365" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1365" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1365">
+        <v>5</v>
+      </c>
+      <c r="Y1365">
+        <v>0</v>
+      </c>
+      <c r="Z1365" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:27">
+      <c r="A1366" s="1">
+        <v>1364</v>
+      </c>
+      <c r="B1366">
+        <v>1401</v>
+      </c>
+      <c r="C1366" s="2">
+        <v>45411.7475</v>
+      </c>
+      <c r="D1366" s="2">
+        <v>45411.74826388889</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1366" s="2">
+        <v>45410</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1366">
+        <v>33</v>
+      </c>
+      <c r="I1366">
+        <v>1</v>
+      </c>
+      <c r="J1366">
+        <v>0</v>
+      </c>
+      <c r="K1366">
+        <v>0</v>
+      </c>
+      <c r="L1366">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1366" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1366">
+        <v>32</v>
+      </c>
+      <c r="P1366">
+        <v>0</v>
+      </c>
+      <c r="Q1366">
+        <v>5</v>
+      </c>
+      <c r="R1366">
+        <v>0</v>
+      </c>
+      <c r="S1366">
+        <v>0</v>
+      </c>
+      <c r="T1366">
+        <v>0</v>
+      </c>
+      <c r="U1366">
+        <v>0</v>
+      </c>
+      <c r="V1366" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1366" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1366">
+        <v>5</v>
+      </c>
+      <c r="Y1366">
+        <v>0</v>
+      </c>
+      <c r="Z1366" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:27">
+      <c r="A1367" s="1">
+        <v>1365</v>
+      </c>
+      <c r="B1367">
+        <v>1402</v>
+      </c>
+      <c r="C1367" s="2">
+        <v>45411.74564814815</v>
+      </c>
+      <c r="D1367" s="2">
+        <v>45411.74857638889</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1367" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1367">
+        <v>11</v>
+      </c>
+      <c r="I1367">
+        <v>0</v>
+      </c>
+      <c r="J1367">
+        <v>0</v>
+      </c>
+      <c r="K1367">
+        <v>0</v>
+      </c>
+      <c r="L1367">
+        <v>0</v>
+      </c>
+      <c r="M1367">
+        <v>0</v>
+      </c>
+      <c r="N1367">
+        <v>0</v>
+      </c>
+      <c r="O1367">
+        <v>11</v>
+      </c>
+      <c r="P1367">
+        <v>0</v>
+      </c>
+      <c r="Q1367">
+        <v>18</v>
+      </c>
+      <c r="R1367">
+        <v>0</v>
+      </c>
+      <c r="S1367">
+        <v>0</v>
+      </c>
+      <c r="T1367">
+        <v>0</v>
+      </c>
+      <c r="U1367">
+        <v>0</v>
+      </c>
+      <c r="V1367">
+        <v>0</v>
+      </c>
+      <c r="W1367">
+        <v>0</v>
+      </c>
+      <c r="X1367">
+        <v>18</v>
+      </c>
+      <c r="Y1367">
+        <v>0</v>
+      </c>
+      <c r="Z1367" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:27">
+      <c r="A1368" s="1">
+        <v>1366</v>
+      </c>
+      <c r="B1368">
+        <v>1403</v>
+      </c>
+      <c r="C1368" s="2">
+        <v>45411.74842592593</v>
+      </c>
+      <c r="D1368" s="2">
+        <v>45411.74894675926</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1368" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1368">
+        <v>32</v>
+      </c>
+      <c r="I1368">
+        <v>2</v>
+      </c>
+      <c r="J1368">
+        <v>0</v>
+      </c>
+      <c r="K1368">
+        <v>0</v>
+      </c>
+      <c r="L1368">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1368" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1368">
+        <v>30</v>
+      </c>
+      <c r="P1368">
+        <v>0</v>
+      </c>
+      <c r="Q1368">
+        <v>5</v>
+      </c>
+      <c r="R1368">
+        <v>0</v>
+      </c>
+      <c r="S1368">
+        <v>0</v>
+      </c>
+      <c r="T1368">
+        <v>0</v>
+      </c>
+      <c r="U1368">
+        <v>0</v>
+      </c>
+      <c r="V1368" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1368" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1368">
+        <v>5</v>
+      </c>
+      <c r="Y1368">
+        <v>0</v>
+      </c>
+      <c r="Z1368" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:27">
+      <c r="A1369" s="1">
+        <v>1367</v>
+      </c>
+      <c r="B1369">
+        <v>1404</v>
+      </c>
+      <c r="C1369" s="2">
+        <v>45411.75106481482</v>
+      </c>
+      <c r="D1369" s="2">
+        <v>45411.75265046296</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1369" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1369">
+        <v>2</v>
+      </c>
+      <c r="I1369">
+        <v>0</v>
+      </c>
+      <c r="J1369">
+        <v>0</v>
+      </c>
+      <c r="K1369">
+        <v>0</v>
+      </c>
+      <c r="L1369">
+        <v>100</v>
+      </c>
+      <c r="M1369" t="s">
+        <v>108</v>
+      </c>
+      <c r="N1369" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1369">
+        <v>102</v>
+      </c>
+      <c r="P1369">
+        <v>0</v>
+      </c>
+      <c r="Q1369">
+        <v>19</v>
+      </c>
+      <c r="R1369">
+        <v>7</v>
+      </c>
+      <c r="S1369">
+        <v>0</v>
+      </c>
+      <c r="T1369">
+        <v>0</v>
+      </c>
+      <c r="U1369">
+        <v>100</v>
+      </c>
+      <c r="V1369" t="s">
+        <v>108</v>
+      </c>
+      <c r="W1369" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1369">
+        <v>112</v>
+      </c>
+      <c r="Y1369">
+        <v>0</v>
+      </c>
+      <c r="Z1369" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:27">
+      <c r="A1370" s="1">
+        <v>1368</v>
+      </c>
+      <c r="B1370">
+        <v>1405</v>
+      </c>
+      <c r="C1370" s="2">
+        <v>45411.7569212963</v>
+      </c>
+      <c r="D1370" s="2">
+        <v>45411.75835648148</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1370" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1370">
+        <v>7</v>
+      </c>
+      <c r="I1370">
+        <v>0</v>
+      </c>
+      <c r="J1370">
+        <v>0</v>
+      </c>
+      <c r="K1370">
+        <v>0</v>
+      </c>
+      <c r="L1370">
+        <v>0</v>
+      </c>
+      <c r="M1370">
+        <v>0</v>
+      </c>
+      <c r="N1370">
+        <v>0</v>
+      </c>
+      <c r="O1370">
+        <v>7</v>
+      </c>
+      <c r="P1370">
+        <v>0</v>
+      </c>
+      <c r="Q1370">
+        <v>15</v>
+      </c>
+      <c r="R1370">
+        <v>1</v>
+      </c>
+      <c r="S1370">
+        <v>0</v>
+      </c>
+      <c r="T1370">
+        <v>0</v>
+      </c>
+      <c r="U1370">
+        <v>0</v>
+      </c>
+      <c r="V1370">
+        <v>0</v>
+      </c>
+      <c r="W1370">
+        <v>0</v>
+      </c>
+      <c r="X1370">
+        <v>14</v>
+      </c>
+      <c r="Y1370">
+        <v>0</v>
+      </c>
+      <c r="Z1370" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:27">
+      <c r="A1371" s="1">
+        <v>1369</v>
+      </c>
+      <c r="B1371">
+        <v>1406</v>
+      </c>
+      <c r="C1371" s="2">
+        <v>45411.75952546296</v>
+      </c>
+      <c r="D1371" s="2">
+        <v>45411.76069444444</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1371" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1371">
+        <v>6</v>
+      </c>
+      <c r="I1371">
+        <v>0</v>
+      </c>
+      <c r="J1371">
+        <v>0</v>
+      </c>
+      <c r="K1371">
+        <v>0</v>
+      </c>
+      <c r="L1371">
+        <v>0</v>
+      </c>
+      <c r="M1371">
+        <v>0</v>
+      </c>
+      <c r="N1371">
+        <v>0</v>
+      </c>
+      <c r="O1371">
+        <v>6</v>
+      </c>
+      <c r="P1371">
+        <v>0</v>
+      </c>
+      <c r="Q1371">
+        <v>14</v>
+      </c>
+      <c r="R1371">
+        <v>0</v>
+      </c>
+      <c r="S1371">
+        <v>0</v>
+      </c>
+      <c r="T1371">
+        <v>0</v>
+      </c>
+      <c r="U1371">
+        <v>0</v>
+      </c>
+      <c r="V1371">
+        <v>0</v>
+      </c>
+      <c r="W1371">
+        <v>0</v>
+      </c>
+      <c r="X1371">
+        <v>13</v>
+      </c>
+      <c r="Y1371">
+        <v>0</v>
+      </c>
+      <c r="Z1371" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:27">
+      <c r="A1372" s="1">
+        <v>1370</v>
+      </c>
+      <c r="B1372">
+        <v>1407</v>
+      </c>
+      <c r="C1372" s="2">
+        <v>45411.76672453704</v>
+      </c>
+      <c r="D1372" s="2">
+        <v>45411.76726851852</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1372" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1372">
+        <v>1</v>
+      </c>
+      <c r="I1372">
+        <v>0</v>
+      </c>
+      <c r="J1372">
+        <v>0</v>
+      </c>
+      <c r="K1372">
+        <v>0</v>
+      </c>
+      <c r="L1372">
+        <v>0</v>
+      </c>
+      <c r="M1372">
+        <v>0</v>
+      </c>
+      <c r="N1372">
+        <v>0</v>
+      </c>
+      <c r="O1372">
+        <v>1</v>
+      </c>
+      <c r="P1372">
+        <v>0</v>
+      </c>
+      <c r="Q1372">
+        <v>0</v>
+      </c>
+      <c r="R1372">
+        <v>0</v>
+      </c>
+      <c r="S1372">
+        <v>0</v>
+      </c>
+      <c r="T1372">
+        <v>0</v>
+      </c>
+      <c r="U1372">
+        <v>0</v>
+      </c>
+      <c r="V1372">
+        <v>0</v>
+      </c>
+      <c r="W1372">
+        <v>0</v>
+      </c>
+      <c r="X1372">
+        <v>0</v>
+      </c>
+      <c r="Y1372">
+        <v>0</v>
+      </c>
+      <c r="Z1372" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:27">
+      <c r="A1373" s="1">
+        <v>1371</v>
+      </c>
+      <c r="B1373">
+        <v>1408</v>
+      </c>
+      <c r="C1373" s="2">
+        <v>45411.78087962963</v>
+      </c>
+      <c r="D1373" s="2">
+        <v>45411.78174768519</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1373" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1373">
+        <v>14</v>
+      </c>
+      <c r="I1373">
+        <v>0</v>
+      </c>
+      <c r="J1373">
+        <v>0</v>
+      </c>
+      <c r="K1373">
+        <v>0</v>
+      </c>
+      <c r="L1373">
+        <v>0</v>
+      </c>
+      <c r="M1373">
+        <v>0</v>
+      </c>
+      <c r="N1373">
+        <v>0</v>
+      </c>
+      <c r="O1373">
+        <v>14</v>
+      </c>
+      <c r="P1373">
+        <v>0</v>
+      </c>
+      <c r="Q1373">
+        <v>17</v>
+      </c>
+      <c r="R1373">
+        <v>1</v>
+      </c>
+      <c r="S1373">
+        <v>0</v>
+      </c>
+      <c r="T1373">
+        <v>0</v>
+      </c>
+      <c r="U1373">
+        <v>0</v>
+      </c>
+      <c r="V1373">
+        <v>0</v>
+      </c>
+      <c r="W1373">
+        <v>0</v>
+      </c>
+      <c r="X1373">
+        <v>16</v>
+      </c>
+      <c r="Y1373">
+        <v>0</v>
+      </c>
+      <c r="Z1373" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:27">
+      <c r="A1374" s="1">
+        <v>1372</v>
+      </c>
+      <c r="B1374">
+        <v>1409</v>
+      </c>
+      <c r="C1374" s="2">
+        <v>45411.79475694444</v>
+      </c>
+      <c r="D1374" s="2">
+        <v>45411.79564814815</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1374" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1374">
+        <v>27</v>
+      </c>
+      <c r="I1374">
+        <v>0</v>
+      </c>
+      <c r="J1374">
+        <v>0</v>
+      </c>
+      <c r="K1374">
+        <v>0</v>
+      </c>
+      <c r="L1374">
+        <v>0</v>
+      </c>
+      <c r="M1374">
+        <v>0</v>
+      </c>
+      <c r="N1374">
+        <v>0</v>
+      </c>
+      <c r="O1374">
+        <v>27</v>
+      </c>
+      <c r="P1374">
+        <v>0</v>
+      </c>
+      <c r="Q1374">
+        <v>128</v>
+      </c>
+      <c r="R1374">
+        <v>6</v>
+      </c>
+      <c r="S1374">
+        <v>0</v>
+      </c>
+      <c r="T1374">
+        <v>0</v>
+      </c>
+      <c r="U1374">
+        <v>0</v>
+      </c>
+      <c r="V1374">
+        <v>0</v>
+      </c>
+      <c r="W1374">
+        <v>0</v>
+      </c>
+      <c r="X1374">
+        <v>122</v>
+      </c>
+      <c r="Y1374">
+        <v>0</v>
+      </c>
+      <c r="Z1374" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:27">
+      <c r="A1375" s="1">
+        <v>1373</v>
+      </c>
+      <c r="B1375">
+        <v>1410</v>
+      </c>
+      <c r="C1375" s="2">
+        <v>45411.79922453704</v>
+      </c>
+      <c r="D1375" s="2">
+        <v>45411.79994212963</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1375" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1375">
+        <v>14</v>
+      </c>
+      <c r="I1375">
+        <v>1</v>
+      </c>
+      <c r="J1375">
+        <v>0</v>
+      </c>
+      <c r="K1375">
+        <v>0</v>
+      </c>
+      <c r="L1375">
+        <v>0</v>
+      </c>
+      <c r="M1375">
+        <v>0</v>
+      </c>
+      <c r="N1375">
+        <v>0</v>
+      </c>
+      <c r="O1375">
+        <v>13</v>
+      </c>
+      <c r="P1375">
+        <v>0</v>
+      </c>
+      <c r="Q1375">
+        <v>10</v>
+      </c>
+      <c r="R1375">
+        <v>1</v>
+      </c>
+      <c r="S1375">
+        <v>0</v>
+      </c>
+      <c r="T1375">
+        <v>0</v>
+      </c>
+      <c r="U1375">
+        <v>0</v>
+      </c>
+      <c r="V1375">
+        <v>0</v>
+      </c>
+      <c r="W1375">
+        <v>0</v>
+      </c>
+      <c r="X1375">
+        <v>9</v>
+      </c>
+      <c r="Y1375">
+        <v>0</v>
+      </c>
+      <c r="Z1375" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:27">
+      <c r="A1376" s="1">
+        <v>1374</v>
+      </c>
+      <c r="B1376">
+        <v>1411</v>
+      </c>
+      <c r="C1376" s="2">
+        <v>45411.8080787037</v>
+      </c>
+      <c r="D1376" s="2">
+        <v>45411.80924768518</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1376" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1376">
+        <v>153</v>
+      </c>
+      <c r="I1376">
+        <v>2</v>
+      </c>
+      <c r="J1376">
+        <v>0</v>
+      </c>
+      <c r="K1376">
+        <v>0</v>
+      </c>
+      <c r="L1376">
+        <v>0</v>
+      </c>
+      <c r="M1376">
+        <v>0</v>
+      </c>
+      <c r="N1376">
+        <v>0</v>
+      </c>
+      <c r="O1376">
+        <v>151</v>
+      </c>
+      <c r="P1376">
+        <v>0</v>
+      </c>
+      <c r="Q1376">
+        <v>2</v>
+      </c>
+      <c r="R1376">
+        <v>0</v>
+      </c>
+      <c r="S1376">
+        <v>0</v>
+      </c>
+      <c r="T1376">
+        <v>0</v>
+      </c>
+      <c r="U1376">
+        <v>0</v>
+      </c>
+      <c r="V1376">
+        <v>0</v>
+      </c>
+      <c r="W1376">
+        <v>0</v>
+      </c>
+      <c r="X1376">
+        <v>2</v>
+      </c>
+      <c r="Y1376">
+        <v>0</v>
+      </c>
+      <c r="Z1376" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:27">
+      <c r="A1377" s="1">
+        <v>1375</v>
+      </c>
+      <c r="B1377">
+        <v>1412</v>
+      </c>
+      <c r="C1377" s="2">
+        <v>45411.80815972222</v>
+      </c>
+      <c r="D1377" s="2">
+        <v>45411.81011574074</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1377" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1377">
+        <v>82</v>
+      </c>
+      <c r="I1377">
+        <v>1</v>
+      </c>
+      <c r="J1377">
+        <v>0</v>
+      </c>
+      <c r="K1377">
+        <v>5</v>
+      </c>
+      <c r="L1377">
+        <v>0</v>
+      </c>
+      <c r="M1377">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1377">
+        <v>76</v>
+      </c>
+      <c r="P1377">
+        <v>0</v>
+      </c>
+      <c r="Q1377">
+        <v>195</v>
+      </c>
+      <c r="R1377">
+        <v>13</v>
+      </c>
+      <c r="S1377">
+        <v>0</v>
+      </c>
+      <c r="T1377">
+        <v>0</v>
+      </c>
+      <c r="U1377">
+        <v>0</v>
+      </c>
+      <c r="V1377">
+        <v>0</v>
+      </c>
+      <c r="W1377">
+        <v>0</v>
+      </c>
+      <c r="X1377">
+        <v>182</v>
+      </c>
+      <c r="Y1377">
+        <v>0</v>
+      </c>
+      <c r="Z1377" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:27">
+      <c r="A1378" s="1">
+        <v>1376</v>
+      </c>
+      <c r="B1378">
+        <v>1413</v>
+      </c>
+      <c r="C1378" s="2">
+        <v>45411.81371527778</v>
+      </c>
+      <c r="D1378" s="2">
+        <v>45411.81482638889</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1378" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1378">
+        <v>22</v>
+      </c>
+      <c r="I1378">
+        <v>3</v>
+      </c>
+      <c r="J1378">
+        <v>0</v>
+      </c>
+      <c r="K1378">
+        <v>0</v>
+      </c>
+      <c r="L1378">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1378">
+        <v>19</v>
+      </c>
+      <c r="P1378">
+        <v>0</v>
+      </c>
+      <c r="Q1378">
+        <v>0</v>
+      </c>
+      <c r="R1378">
+        <v>0</v>
+      </c>
+      <c r="S1378">
+        <v>0</v>
+      </c>
+      <c r="T1378">
+        <v>0</v>
+      </c>
+      <c r="U1378">
+        <v>0</v>
+      </c>
+      <c r="V1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1378">
+        <v>0</v>
+      </c>
+      <c r="Y1378" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1378" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:27">
+      <c r="A1379" s="1">
+        <v>1377</v>
+      </c>
+      <c r="B1379">
+        <v>1414</v>
+      </c>
+      <c r="C1379" s="2">
+        <v>45411.81483796296</v>
+      </c>
+      <c r="D1379" s="2">
+        <v>45411.81579861111</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1379" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1379">
+        <v>134</v>
+      </c>
+      <c r="I1379">
+        <v>2</v>
+      </c>
+      <c r="J1379">
+        <v>0</v>
+      </c>
+      <c r="K1379">
+        <v>0</v>
+      </c>
+      <c r="L1379">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1379" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1379">
+        <v>132</v>
+      </c>
+      <c r="P1379">
+        <v>0</v>
+      </c>
+      <c r="Q1379">
+        <v>226</v>
+      </c>
+      <c r="R1379">
+        <v>3</v>
+      </c>
+      <c r="S1379">
+        <v>0</v>
+      </c>
+      <c r="T1379">
+        <v>0</v>
+      </c>
+      <c r="U1379">
+        <v>0</v>
+      </c>
+      <c r="V1379" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1379" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1379">
+        <v>223</v>
+      </c>
+      <c r="Y1379" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z1379" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:27">
+      <c r="A1380" s="1">
+        <v>1378</v>
+      </c>
+      <c r="B1380">
+        <v>1415</v>
+      </c>
+      <c r="C1380" s="2">
+        <v>45411.82153935185</v>
+      </c>
+      <c r="D1380" s="2">
+        <v>45411.82230324074</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1380" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1380">
+        <v>22</v>
+      </c>
+      <c r="I1380">
+        <v>0</v>
+      </c>
+      <c r="J1380">
+        <v>0</v>
+      </c>
+      <c r="K1380">
+        <v>0</v>
+      </c>
+      <c r="L1380">
+        <v>0</v>
+      </c>
+      <c r="M1380">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1380">
+        <v>22</v>
+      </c>
+      <c r="P1380">
+        <v>0</v>
+      </c>
+      <c r="Q1380">
+        <v>0</v>
+      </c>
+      <c r="R1380">
+        <v>0</v>
+      </c>
+      <c r="S1380">
+        <v>0</v>
+      </c>
+      <c r="T1380">
+        <v>0</v>
+      </c>
+      <c r="U1380">
+        <v>0</v>
+      </c>
+      <c r="V1380" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1380" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1380">
+        <v>0</v>
+      </c>
+      <c r="Y1380">
+        <v>0</v>
+      </c>
+      <c r="Z1380" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:27">
+      <c r="A1381" s="1">
+        <v>1379</v>
+      </c>
+      <c r="B1381">
+        <v>1416</v>
+      </c>
+      <c r="C1381" s="2">
+        <v>45411.82491898148</v>
+      </c>
+      <c r="D1381" s="2">
+        <v>45411.82552083334</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1381" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1381">
+        <v>3</v>
+      </c>
+      <c r="I1381">
+        <v>0</v>
+      </c>
+      <c r="J1381">
+        <v>0</v>
+      </c>
+      <c r="K1381">
+        <v>0</v>
+      </c>
+      <c r="L1381">
+        <v>0</v>
+      </c>
+      <c r="M1381">
+        <v>0</v>
+      </c>
+      <c r="N1381">
+        <v>0</v>
+      </c>
+      <c r="O1381">
+        <v>3</v>
+      </c>
+      <c r="P1381">
+        <v>0</v>
+      </c>
+      <c r="Q1381">
+        <v>4</v>
+      </c>
+      <c r="R1381">
+        <v>0</v>
+      </c>
+      <c r="S1381">
+        <v>0</v>
+      </c>
+      <c r="T1381">
+        <v>0</v>
+      </c>
+      <c r="U1381">
+        <v>0</v>
+      </c>
+      <c r="V1381">
+        <v>0</v>
+      </c>
+      <c r="W1381">
+        <v>0</v>
+      </c>
+      <c r="X1381">
+        <v>4</v>
+      </c>
+      <c r="Y1381">
+        <v>0</v>
+      </c>
+      <c r="Z1381" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:27">
+      <c r="A1382" s="1">
+        <v>1380</v>
+      </c>
+      <c r="B1382">
+        <v>1417</v>
+      </c>
+      <c r="C1382" s="2">
+        <v>45411.85634259259</v>
+      </c>
+      <c r="D1382" s="2">
+        <v>45411.85815972222</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1382" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1382">
+        <v>33</v>
+      </c>
+      <c r="I1382">
+        <v>1</v>
+      </c>
+      <c r="J1382">
+        <v>0</v>
+      </c>
+      <c r="K1382">
+        <v>0</v>
+      </c>
+      <c r="L1382">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1382" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1382">
+        <v>32</v>
+      </c>
+      <c r="P1382">
+        <v>0</v>
+      </c>
+      <c r="Q1382">
+        <v>43</v>
+      </c>
+      <c r="R1382">
+        <v>5</v>
+      </c>
+      <c r="S1382">
+        <v>0</v>
+      </c>
+      <c r="T1382">
+        <v>0</v>
+      </c>
+      <c r="U1382">
+        <v>0</v>
+      </c>
+      <c r="V1382" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1382" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1382">
+        <v>38</v>
+      </c>
+      <c r="Y1382" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1382" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:27">
+      <c r="A1383" s="1">
+        <v>1381</v>
+      </c>
+      <c r="B1383">
+        <v>1418</v>
+      </c>
+      <c r="C1383" s="2">
+        <v>45411.90152777778</v>
+      </c>
+      <c r="D1383" s="2">
+        <v>45411.90252314815</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1383" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1383">
+        <v>6</v>
+      </c>
+      <c r="I1383">
+        <v>0</v>
+      </c>
+      <c r="J1383">
+        <v>0</v>
+      </c>
+      <c r="K1383">
+        <v>0</v>
+      </c>
+      <c r="L1383">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1383">
+        <v>6</v>
+      </c>
+      <c r="P1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1383">
+        <v>50</v>
+      </c>
+      <c r="R1383">
+        <v>2</v>
+      </c>
+      <c r="S1383">
+        <v>0</v>
+      </c>
+      <c r="T1383">
+        <v>0</v>
+      </c>
+      <c r="U1383">
+        <v>0</v>
+      </c>
+      <c r="V1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="W1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1383">
+        <v>48</v>
+      </c>
+      <c r="Y1383" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z1383" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:27">
+      <c r="A1384" s="1">
+        <v>1382</v>
+      </c>
+      <c r="B1384">
+        <v>1419</v>
+      </c>
+      <c r="C1384" s="2">
+        <v>45411.94835648148</v>
+      </c>
+      <c r="D1384" s="2">
+        <v>45411.95138888889</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1384" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1384">
+        <v>3</v>
+      </c>
+      <c r="I1384">
+        <v>4</v>
+      </c>
+      <c r="J1384">
+        <v>0</v>
+      </c>
+      <c r="K1384">
+        <v>0</v>
+      </c>
+      <c r="L1384">
+        <v>5</v>
+      </c>
+      <c r="M1384" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1384" t="s">
+        <v>117</v>
+      </c>
+      <c r="O1384">
+        <v>4</v>
+      </c>
+      <c r="P1384">
+        <v>0</v>
+      </c>
+      <c r="Q1384">
+        <v>0</v>
+      </c>
+      <c r="R1384">
+        <v>0</v>
+      </c>
+      <c r="S1384">
+        <v>0</v>
+      </c>
+      <c r="T1384">
+        <v>0</v>
+      </c>
+      <c r="U1384">
+        <v>0</v>
+      </c>
+      <c r="V1384" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1384" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1384">
+        <v>0</v>
+      </c>
+      <c r="Y1384">
+        <v>0</v>
+      </c>
+      <c r="Z1384" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:27">
+      <c r="A1385" s="1">
+        <v>1383</v>
+      </c>
+      <c r="B1385">
+        <v>1420</v>
+      </c>
+      <c r="C1385" s="2">
+        <v>45412.34039351852</v>
+      </c>
+      <c r="D1385" s="2">
+        <v>45412.34159722222</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1385" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1385">
+        <v>46</v>
+      </c>
+      <c r="I1385">
+        <v>11</v>
+      </c>
+      <c r="J1385">
+        <v>0</v>
+      </c>
+      <c r="K1385">
+        <v>0</v>
+      </c>
+      <c r="L1385">
+        <v>0</v>
+      </c>
+      <c r="M1385">
+        <v>0</v>
+      </c>
+      <c r="N1385">
+        <v>0</v>
+      </c>
+      <c r="O1385">
+        <v>35</v>
+      </c>
+      <c r="P1385">
+        <v>0</v>
+      </c>
+      <c r="Q1385">
+        <v>0</v>
+      </c>
+      <c r="R1385">
+        <v>0</v>
+      </c>
+      <c r="S1385">
+        <v>0</v>
+      </c>
+      <c r="T1385">
+        <v>0</v>
+      </c>
+      <c r="U1385">
+        <v>0</v>
+      </c>
+      <c r="V1385" t="s">
+        <v>317</v>
+      </c>
+      <c r="W1385">
+        <v>0</v>
+      </c>
+      <c r="X1385">
+        <v>0</v>
+      </c>
+      <c r="Y1385">
+        <v>0</v>
+      </c>
+      <c r="Z1385" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:27">
+      <c r="A1386" s="1">
+        <v>1384</v>
+      </c>
+      <c r="B1386">
+        <v>1421</v>
+      </c>
+      <c r="C1386" s="2">
+        <v>45412.34101851852</v>
+      </c>
+      <c r="D1386" s="2">
+        <v>45412.34159722222</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1386" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1386">
+        <v>0</v>
+      </c>
+      <c r="I1386">
+        <v>0</v>
+      </c>
+      <c r="J1386">
+        <v>0</v>
+      </c>
+      <c r="K1386">
+        <v>0</v>
+      </c>
+      <c r="L1386">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1386" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1386">
+        <v>0</v>
+      </c>
+      <c r="P1386">
+        <v>0</v>
+      </c>
+      <c r="Q1386">
+        <v>0</v>
+      </c>
+      <c r="R1386">
+        <v>0</v>
+      </c>
+      <c r="S1386">
+        <v>0</v>
+      </c>
+      <c r="T1386">
+        <v>0</v>
+      </c>
+      <c r="U1386">
+        <v>0</v>
+      </c>
+      <c r="V1386" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1386" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1386">
+        <v>0</v>
+      </c>
+      <c r="Y1386">
+        <v>0</v>
+      </c>
+      <c r="Z1386" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:27">
+      <c r="A1387" s="1">
+        <v>1385</v>
+      </c>
+      <c r="B1387">
+        <v>1422</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>45412.36216435185</v>
+      </c>
+      <c r="D1387" s="2">
+        <v>45412.36361111111</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1387" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1387">
+        <v>28</v>
+      </c>
+      <c r="I1387">
+        <v>9</v>
+      </c>
+      <c r="J1387">
+        <v>0</v>
+      </c>
+      <c r="K1387">
+        <v>0</v>
+      </c>
+      <c r="L1387">
+        <v>25</v>
+      </c>
+      <c r="M1387" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1387">
+        <v>0</v>
+      </c>
+      <c r="O1387">
+        <v>44</v>
+      </c>
+      <c r="P1387">
+        <v>0</v>
+      </c>
+      <c r="Q1387">
+        <v>2</v>
+      </c>
+      <c r="R1387">
+        <v>0</v>
+      </c>
+      <c r="S1387">
+        <v>0</v>
+      </c>
+      <c r="T1387">
+        <v>0</v>
+      </c>
+      <c r="U1387">
+        <v>0</v>
+      </c>
+      <c r="V1387">
+        <v>0</v>
+      </c>
+      <c r="W1387">
+        <v>0</v>
+      </c>
+      <c r="X1387">
+        <v>2</v>
+      </c>
+      <c r="Y1387">
+        <v>0</v>
+      </c>
+      <c r="Z1387" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:27">
+      <c r="A1388" s="1">
+        <v>1386</v>
+      </c>
+      <c r="B1388">
+        <v>1423</v>
+      </c>
+      <c r="C1388" s="2">
+        <v>45412.36377314815</v>
+      </c>
+      <c r="D1388" s="2">
+        <v>45412.36481481481</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1388" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1388">
+        <v>29</v>
+      </c>
+      <c r="I1388">
+        <v>4</v>
+      </c>
+      <c r="J1388">
+        <v>0</v>
+      </c>
+      <c r="K1388">
+        <v>0</v>
+      </c>
+      <c r="L1388">
+        <v>0</v>
+      </c>
+      <c r="M1388">
+        <v>0</v>
+      </c>
+      <c r="N1388">
+        <v>0</v>
+      </c>
+      <c r="O1388">
+        <v>25</v>
+      </c>
+      <c r="P1388">
+        <v>0</v>
+      </c>
+      <c r="Q1388">
+        <v>1</v>
+      </c>
+      <c r="R1388">
+        <v>0</v>
+      </c>
+      <c r="S1388">
+        <v>0</v>
+      </c>
+      <c r="T1388">
+        <v>0</v>
+      </c>
+      <c r="U1388">
+        <v>0</v>
+      </c>
+      <c r="V1388">
+        <v>0</v>
+      </c>
+      <c r="W1388">
+        <v>0</v>
+      </c>
+      <c r="X1388">
+        <v>1</v>
+      </c>
+      <c r="Y1388">
+        <v>0</v>
+      </c>
+      <c r="Z1388" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:27">
+      <c r="A1389" s="1">
+        <v>1387</v>
+      </c>
+      <c r="B1389">
+        <v>1424</v>
+      </c>
+      <c r="C1389" s="2">
+        <v>45412.35902777778</v>
+      </c>
+      <c r="D1389" s="2">
+        <v>45412.36724537037</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1389" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1389">
+        <v>153</v>
+      </c>
+      <c r="I1389">
+        <v>2</v>
+      </c>
+      <c r="J1389">
+        <v>0</v>
+      </c>
+      <c r="K1389">
+        <v>0</v>
+      </c>
+      <c r="L1389">
+        <v>0</v>
+      </c>
+      <c r="M1389">
+        <v>0</v>
+      </c>
+      <c r="N1389">
+        <v>0</v>
+      </c>
+      <c r="O1389">
+        <v>151</v>
+      </c>
+      <c r="P1389">
+        <v>0</v>
+      </c>
+      <c r="Q1389">
+        <v>100</v>
+      </c>
+      <c r="R1389">
+        <v>2</v>
+      </c>
+      <c r="S1389">
+        <v>0</v>
+      </c>
+      <c r="T1389">
+        <v>0</v>
+      </c>
+      <c r="U1389">
+        <v>0</v>
+      </c>
+      <c r="V1389">
+        <v>0</v>
+      </c>
+      <c r="W1389">
+        <v>0</v>
+      </c>
+      <c r="X1389">
+        <v>98</v>
+      </c>
+      <c r="Y1389">
+        <v>0</v>
+      </c>
+      <c r="Z1389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:27">
+      <c r="A1390" s="1">
+        <v>1388</v>
+      </c>
+      <c r="B1390">
+        <v>1425</v>
+      </c>
+      <c r="C1390" s="2">
+        <v>45412.36726851852</v>
+      </c>
+      <c r="D1390" s="2">
+        <v>45412.36756944445</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1390" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1390">
+        <v>0</v>
+      </c>
+      <c r="I1390">
+        <v>0</v>
+      </c>
+      <c r="J1390">
+        <v>0</v>
+      </c>
+      <c r="K1390">
+        <v>0</v>
+      </c>
+      <c r="L1390">
+        <v>0</v>
+      </c>
+      <c r="M1390">
+        <v>0</v>
+      </c>
+      <c r="N1390">
+        <v>0</v>
+      </c>
+      <c r="O1390">
+        <v>0</v>
+      </c>
+      <c r="P1390">
+        <v>0</v>
+      </c>
+      <c r="Q1390">
+        <v>0</v>
+      </c>
+      <c r="R1390">
+        <v>0</v>
+      </c>
+      <c r="S1390">
+        <v>0</v>
+      </c>
+      <c r="T1390">
+        <v>0</v>
+      </c>
+      <c r="U1390">
+        <v>0</v>
+      </c>
+      <c r="V1390">
+        <v>0</v>
+      </c>
+      <c r="W1390">
+        <v>0</v>
+      </c>
+      <c r="X1390">
+        <v>0</v>
+      </c>
+      <c r="Y1390">
+        <v>0</v>
+      </c>
+      <c r="Z1390" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:27">
+      <c r="A1391" s="1">
+        <v>1389</v>
+      </c>
+      <c r="B1391">
+        <v>1426</v>
+      </c>
+      <c r="C1391" s="2">
+        <v>45412.37319444444</v>
+      </c>
+      <c r="D1391" s="2">
+        <v>45412.37440972222</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1391" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1391">
+        <v>13</v>
+      </c>
+      <c r="I1391">
+        <v>4</v>
+      </c>
+      <c r="J1391">
+        <v>0</v>
+      </c>
+      <c r="K1391">
+        <v>0</v>
+      </c>
+      <c r="L1391">
+        <v>0</v>
+      </c>
+      <c r="M1391">
+        <v>0</v>
+      </c>
+      <c r="N1391">
+        <v>0</v>
+      </c>
+      <c r="O1391">
+        <v>9</v>
+      </c>
+      <c r="P1391">
+        <v>0</v>
+      </c>
+      <c r="Q1391">
+        <v>0</v>
+      </c>
+      <c r="R1391">
+        <v>0</v>
+      </c>
+      <c r="S1391">
+        <v>0</v>
+      </c>
+      <c r="T1391">
+        <v>0</v>
+      </c>
+      <c r="U1391">
+        <v>0</v>
+      </c>
+      <c r="V1391">
+        <v>0</v>
+      </c>
+      <c r="W1391">
+        <v>0</v>
+      </c>
+      <c r="X1391">
+        <v>0</v>
+      </c>
+      <c r="Y1391">
+        <v>0</v>
+      </c>
+      <c r="Z1391" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:27">
+      <c r="A1392" s="1">
+        <v>1390</v>
+      </c>
+      <c r="B1392">
+        <v>1427</v>
+      </c>
+      <c r="C1392" s="2">
+        <v>45412.41818287037</v>
+      </c>
+      <c r="D1392" s="2">
+        <v>45412.41917824074</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1392" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1392">
+        <v>13</v>
+      </c>
+      <c r="I1392">
+        <v>8</v>
+      </c>
+      <c r="J1392">
+        <v>0</v>
+      </c>
+      <c r="K1392">
+        <v>0</v>
+      </c>
+      <c r="L1392">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1392" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1392">
+        <v>5</v>
+      </c>
+      <c r="P1392">
+        <v>0</v>
+      </c>
+      <c r="Q1392">
+        <v>0</v>
+      </c>
+      <c r="R1392">
+        <v>0</v>
+      </c>
+      <c r="S1392">
+        <v>0</v>
+      </c>
+      <c r="T1392">
+        <v>0</v>
+      </c>
+      <c r="U1392">
+        <v>0</v>
+      </c>
+      <c r="V1392" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1392" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1392">
+        <v>0</v>
+      </c>
+      <c r="Y1392">
+        <v>0</v>
+      </c>
+      <c r="Z1392" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:27">
+      <c r="A1393" s="1">
+        <v>1391</v>
+      </c>
+      <c r="B1393">
+        <v>1428</v>
+      </c>
+      <c r="C1393" s="2">
+        <v>45412.43626157408</v>
+      </c>
+      <c r="D1393" s="2">
+        <v>45412.43689814815</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1393" s="2">
+        <v>45411</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1393">
+        <v>16</v>
+      </c>
+      <c r="I1393">
+        <v>1</v>
+      </c>
+      <c r="J1393">
+        <v>0</v>
+      </c>
+      <c r="K1393">
+        <v>0</v>
+      </c>
+      <c r="L1393">
+        <v>0</v>
+      </c>
+      <c r="M1393">
+        <v>0</v>
+      </c>
+      <c r="N1393">
+        <v>0</v>
+      </c>
+      <c r="O1393">
+        <v>15</v>
+      </c>
+      <c r="P1393">
+        <v>0</v>
+      </c>
+      <c r="Q1393">
+        <v>45</v>
+      </c>
+      <c r="R1393">
+        <v>2</v>
+      </c>
+      <c r="S1393">
+        <v>0</v>
+      </c>
+      <c r="T1393">
+        <v>0</v>
+      </c>
+      <c r="U1393">
+        <v>0</v>
+      </c>
+      <c r="V1393">
+        <v>0</v>
+      </c>
+      <c r="W1393">
+        <v>0</v>
+      </c>
+      <c r="X1393">
+        <v>43</v>
+      </c>
+      <c r="Y1393">
+        <v>0</v>
+      </c>
+      <c r="Z1393" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA1393" t="b">
         <v>1</v>
       </c>
     </row>
